--- a/data/obtained_data/original_data_policy_scaled.xlsx
+++ b/data/obtained_data/original_data_policy_scaled.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I195"/>
+  <dimension ref="A1:I187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,7 +505,7 @@
         <v>0.1347826086956521</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1568627450980392</v>
+        <v>0.2554112554112554</v>
       </c>
       <c r="I2" t="n">
         <v>0.4438835301541513</v>
@@ -514,107 +514,107 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2015</v>
       </c>
       <c r="C3" t="n">
-        <v>822</v>
+        <v>632</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6553911205073997</v>
+        <v>0.2219873150105708</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1869565217391304</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>0.6017316017316017</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7605021184530785</v>
+        <v>0.5277877941043903</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>2015</v>
       </c>
       <c r="C4" t="n">
-        <v>632</v>
+        <v>359</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2219873150105708</v>
+        <v>0.3932346723044398</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1043478260869565</v>
+        <v>0.191304347826087</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5490196078431373</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5277877941043903</v>
+        <v>0.3298251149373479</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>2015</v>
       </c>
       <c r="C5" t="n">
-        <v>359</v>
+        <v>571</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3932346723044398</v>
+        <v>0.2156448202959831</v>
       </c>
       <c r="G5" t="n">
-        <v>0.191304347826087</v>
+        <v>0.3434782608695652</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08333333333333337</v>
+        <v>0.3852813852813853</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3298251149373479</v>
+        <v>0.1973541873253404</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>2015</v>
       </c>
       <c r="C6" t="n">
-        <v>571</v>
+        <v>488</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -623,29 +623,29 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2156448202959831</v>
+        <v>0.704016913319239</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3434782608695652</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.303921568627451</v>
+        <v>0.2467532467532468</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1973541873253404</v>
+        <v>0.5468538718110521</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>2015</v>
       </c>
       <c r="C7" t="n">
-        <v>488</v>
+        <v>456</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -654,29 +654,29 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.704016913319239</v>
+        <v>0.2241014799154334</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0.8739130434782609</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1470588235294118</v>
+        <v>0.3463203463203463</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5468538718110521</v>
+        <v>0.5819210312809882</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>2015</v>
       </c>
       <c r="C8" t="n">
-        <v>456</v>
+        <v>516</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -685,153 +685,153 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2241014799154334</v>
+        <v>0.2727272727272728</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8739130434782609</v>
+        <v>0.3608695652173913</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2598039215686274</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5819210312809882</v>
+        <v>0.583115478229514</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>2015</v>
       </c>
       <c r="C9" t="n">
-        <v>516</v>
+        <v>398</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2727272727272728</v>
+        <v>0.7061310782241015</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3608695652173913</v>
+        <v>0.6173913043478261</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4509803921568627</v>
+        <v>0.1168831168831169</v>
       </c>
       <c r="I9" t="n">
-        <v>0.583115478229514</v>
+        <v>0.05350220860001809</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>2015</v>
       </c>
       <c r="C10" t="n">
-        <v>398</v>
+        <v>490</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7061310782241015</v>
+        <v>0.53276955602537</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6173913043478261</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.4155844155844156</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05350220860001809</v>
+        <v>0.3557198233119985</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>2015</v>
       </c>
       <c r="C11" t="n">
-        <v>490</v>
+        <v>637</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.53276955602537</v>
+        <v>0.4566596194503171</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4347826086956522</v>
+        <v>0.5652173913043479</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3382352941176471</v>
+        <v>0.3463203463203463</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3557198233119985</v>
+        <v>0.2966961146669072</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>2015</v>
       </c>
       <c r="C12" t="n">
-        <v>637</v>
+        <v>404</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4566596194503171</v>
+        <v>0.5560253699788584</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5652173913043479</v>
+        <v>0.3434782608695652</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2598039215686274</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2966961146669072</v>
+        <v>0.3199990985306049</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>2015</v>
       </c>
       <c r="C13" t="n">
-        <v>404</v>
+        <v>447</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -840,91 +840,91 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5560253699788584</v>
+        <v>0.2071881606765328</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3434782608695652</v>
+        <v>0.308695652173913</v>
       </c>
       <c r="H13" t="n">
-        <v>0.03921568627450978</v>
+        <v>0.29004329004329</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3199990985306049</v>
+        <v>0.3030965473722169</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>2015</v>
       </c>
       <c r="C14" t="n">
-        <v>447</v>
+        <v>379</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2071881606765328</v>
+        <v>0.3382663847780127</v>
       </c>
       <c r="G14" t="n">
-        <v>0.308695652173913</v>
+        <v>0.2</v>
       </c>
       <c r="H14" t="n">
-        <v>0.196078431372549</v>
+        <v>0.1255411255411256</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3030965473722169</v>
+        <v>0.3767916704227892</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>2015</v>
       </c>
       <c r="C15" t="n">
-        <v>379</v>
+        <v>643</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3382663847780127</v>
+        <v>0.3784355179704018</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2</v>
+        <v>0.1478260869565217</v>
       </c>
       <c r="H15" t="n">
-        <v>0.009803921568627416</v>
+        <v>0.29004329004329</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3767916704227892</v>
+        <v>0.9157351482917155</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>2015</v>
       </c>
       <c r="C16" t="n">
-        <v>643</v>
+        <v>523</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -933,91 +933,91 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3784355179704018</v>
+        <v>0.5179704016913319</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1478260869565217</v>
+        <v>0.2565217391304348</v>
       </c>
       <c r="H16" t="n">
-        <v>0.196078431372549</v>
+        <v>0.5497835497835497</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9157351482917155</v>
+        <v>0.8201568556747496</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>2015</v>
       </c>
       <c r="C17" t="n">
-        <v>523</v>
+        <v>286</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5179704016913319</v>
+        <v>0.3763213530655392</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2565217391304348</v>
+        <v>0.2478260869565218</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4901960784313726</v>
+        <v>0.2251082251082251</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8201568556747496</v>
+        <v>0.1464211665013972</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>2015</v>
       </c>
       <c r="C18" t="n">
-        <v>286</v>
+        <v>459</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3763213530655392</v>
+        <v>0.3276955602536998</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2478260869565218</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1225490196078431</v>
+        <v>0.29004329004329</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1464211665013972</v>
+        <v>0.2193500405661228</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>2015</v>
       </c>
       <c r="C19" t="n">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1026,29 +1026,29 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3276955602536998</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="H19" t="n">
-        <v>0.196078431372549</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2193500405661228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>2015</v>
       </c>
       <c r="C20" t="n">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1057,29 +1057,29 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.2706131078224101</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3043478260869565</v>
+        <v>0.2391304347826087</v>
       </c>
       <c r="H20" t="n">
-        <v>0.142156862745098</v>
+        <v>0.5757575757575757</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.7385738754169295</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2015</v>
       </c>
       <c r="C21" t="n">
-        <v>500</v>
+        <v>728</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1088,60 +1088,60 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4270613107822411</v>
+        <v>0.1035940803382664</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3217391304347826</v>
+        <v>0.1217391304347826</v>
       </c>
       <c r="H21" t="n">
-        <v>0.4754901960784315</v>
+        <v>0.7056277056277056</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7086450914991433</v>
+        <v>0.4493148832597134</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>2015</v>
       </c>
       <c r="C22" t="n">
-        <v>451</v>
+        <v>259</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2706131078224101</v>
+        <v>0.6828752642706131</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2391304347826087</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5196078431372548</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7385738754169295</v>
+        <v>0.04315784729108452</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C23" t="n">
-        <v>728</v>
+        <v>339</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -1150,60 +1150,60 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1035940803382664</v>
+        <v>0.2600422832980973</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1217391304347826</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="H23" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.2770562770562771</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4493148832597134</v>
+        <v>0.4459794464977913</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>2016</v>
       </c>
       <c r="C24" t="n">
-        <v>339</v>
+        <v>633</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2600422832980973</v>
+        <v>0.2093023255813954</v>
       </c>
       <c r="G24" t="n">
-        <v>0.08695652173913043</v>
+        <v>0.08260869565217391</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1813725490196079</v>
+        <v>0.6320346320346322</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4459794464977913</v>
+        <v>0.5283286757414587</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>2016</v>
       </c>
       <c r="C25" t="n">
-        <v>830</v>
+        <v>376</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -1212,29 +1212,29 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6427061310782242</v>
+        <v>0.4439746300211418</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1739130434782609</v>
+        <v>0.208695652173913</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5</v>
+        <v>0.2077922077922078</v>
       </c>
       <c r="I25" t="n">
-        <v>0.7631163796989091</v>
+        <v>0.3331380149643921</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>2016</v>
       </c>
       <c r="C26" t="n">
-        <v>633</v>
+        <v>580</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -1243,60 +1243,60 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2093023255813954</v>
+        <v>0.2177589852008457</v>
       </c>
       <c r="G26" t="n">
-        <v>0.08260869565217391</v>
+        <v>0.2782608695652174</v>
       </c>
       <c r="H26" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.406926406926407</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5283286757414587</v>
+        <v>0.2018389975660329</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>2016</v>
       </c>
       <c r="C27" t="n">
-        <v>376</v>
+        <v>498</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.4439746300211418</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="G27" t="n">
-        <v>0.208695652173913</v>
+        <v>0.9521739130434783</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1029411764705882</v>
+        <v>0.2467532467532468</v>
       </c>
       <c r="I27" t="n">
-        <v>0.3331380149643921</v>
+        <v>0.5545388984043991</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>2016</v>
       </c>
       <c r="C28" t="n">
-        <v>580</v>
+        <v>464</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1305,29 +1305,29 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2177589852008457</v>
+        <v>0.211416490486258</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2782608695652174</v>
+        <v>0.7652173913043478</v>
       </c>
       <c r="H28" t="n">
-        <v>0.3284313725490196</v>
+        <v>0.3593073593073593</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2018389975660329</v>
+        <v>0.5872847741819165</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>2016</v>
       </c>
       <c r="C29" t="n">
-        <v>498</v>
+        <v>553</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1336,91 +1336,91 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6976744186046512</v>
+        <v>0.2896405919661734</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9521739130434783</v>
+        <v>0.3521739130434782</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1470588235294118</v>
+        <v>0.5324675324675325</v>
       </c>
       <c r="I29" t="n">
-        <v>0.5545388984043991</v>
+        <v>0.589020102767511</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>2016</v>
       </c>
       <c r="C30" t="n">
-        <v>464</v>
+        <v>409</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.211416490486258</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7652173913043478</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="H30" t="n">
-        <v>0.2745098039215687</v>
+        <v>0.1385281385281386</v>
       </c>
       <c r="I30" t="n">
-        <v>0.5872847741819165</v>
+        <v>0.05909131884972507</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>2016</v>
       </c>
       <c r="C31" t="n">
-        <v>553</v>
+        <v>501</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2896405919661734</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3521739130434782</v>
+        <v>0.4217391304347826</v>
       </c>
       <c r="H31" t="n">
-        <v>0.4705882352941175</v>
+        <v>0.4372294372294372</v>
       </c>
       <c r="I31" t="n">
-        <v>0.589020102767511</v>
+        <v>0.3622554764265755</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>2016</v>
       </c>
       <c r="C32" t="n">
-        <v>409</v>
+        <v>649</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1429,29 +1429,29 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.4312896405919663</v>
       </c>
       <c r="G32" t="n">
         <v>0.4782608695652174</v>
       </c>
       <c r="H32" t="n">
-        <v>0.02450980392156865</v>
+        <v>0.3852813852813853</v>
       </c>
       <c r="I32" t="n">
-        <v>0.05909131884972507</v>
+        <v>0.2952312268998467</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>2016</v>
       </c>
       <c r="C33" t="n">
-        <v>501</v>
+        <v>410</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -1460,122 +1460,122 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.5581395348837209</v>
+        <v>0.572938689217759</v>
       </c>
       <c r="G33" t="n">
-        <v>0.4217391304347826</v>
+        <v>0.3347826086956521</v>
       </c>
       <c r="H33" t="n">
-        <v>0.3627450980392156</v>
+        <v>0.1731601731601731</v>
       </c>
       <c r="I33" t="n">
-        <v>0.3622554764265755</v>
+        <v>0.3209231046605969</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>2016</v>
       </c>
       <c r="C34" t="n">
-        <v>649</v>
+        <v>442</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.4312896405919663</v>
+        <v>0.2219873150105708</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.2565217391304348</v>
       </c>
       <c r="H34" t="n">
-        <v>0.303921568627451</v>
+        <v>0.3203463203463203</v>
       </c>
       <c r="I34" t="n">
-        <v>0.2952312268998467</v>
+        <v>0.3061615433156044</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>2016</v>
       </c>
       <c r="C35" t="n">
-        <v>410</v>
+        <v>815</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.572938689217759</v>
+        <v>0.1670190274841437</v>
       </c>
       <c r="G35" t="n">
-        <v>0.3347826086956521</v>
+        <v>0.1869565217391304</v>
       </c>
       <c r="H35" t="n">
-        <v>0.06372549019607843</v>
+        <v>0.8528138528138529</v>
       </c>
       <c r="I35" t="n">
-        <v>0.3209231046605969</v>
+        <v>0.8266248985846927</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>2016</v>
       </c>
       <c r="C36" t="n">
-        <v>442</v>
+        <v>381</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2219873150105708</v>
+        <v>0.3509513742071881</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2565217391304348</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="H36" t="n">
-        <v>0.2303921568627451</v>
+        <v>0.1385281385281386</v>
       </c>
       <c r="I36" t="n">
-        <v>0.3061615433156044</v>
+        <v>0.3830794194537095</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>2016</v>
       </c>
       <c r="C37" t="n">
-        <v>815</v>
+        <v>643</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -1584,91 +1584,91 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1670190274841437</v>
+        <v>0.3763213530655392</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1869565217391304</v>
+        <v>0.1173913043478261</v>
       </c>
       <c r="H37" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.3073593073593073</v>
       </c>
       <c r="I37" t="n">
-        <v>0.8266248985846927</v>
+        <v>0.9172225727936536</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>2016</v>
       </c>
       <c r="C38" t="n">
-        <v>381</v>
+        <v>520</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.3509513742071881</v>
+        <v>0.5243128964059197</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1304347826086956</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="H38" t="n">
-        <v>0.02450980392156865</v>
+        <v>0.5411255411255411</v>
       </c>
       <c r="I38" t="n">
-        <v>0.3830794194537095</v>
+        <v>0.8305688271883169</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>2016</v>
       </c>
       <c r="C39" t="n">
-        <v>643</v>
+        <v>307</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3763213530655392</v>
+        <v>0.3911205073995773</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1173913043478261</v>
+        <v>0.1869565217391304</v>
       </c>
       <c r="H39" t="n">
-        <v>0.2156862745098039</v>
+        <v>0.2337662337662338</v>
       </c>
       <c r="I39" t="n">
-        <v>0.9172225727936536</v>
+        <v>0.1441674930136123</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>2016</v>
       </c>
       <c r="C40" t="n">
-        <v>520</v>
+        <v>472</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -1677,60 +1677,60 @@
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.5243128964059197</v>
+        <v>0.3615221987315012</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2173913043478261</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4803921568627452</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="I40" t="n">
-        <v>0.8305688271883169</v>
+        <v>0.2322410529162535</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>2016</v>
       </c>
       <c r="C41" t="n">
-        <v>307</v>
+        <v>457</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.3911205073995773</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1869565217391304</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="H41" t="n">
-        <v>0.1323529411764706</v>
+        <v>0.2597402597402598</v>
       </c>
       <c r="I41" t="n">
-        <v>0.1441674930136123</v>
+        <v>0.005386279635806623</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>2016</v>
       </c>
       <c r="C42" t="n">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -1739,29 +1739,29 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.3615221987315012</v>
+        <v>0.2854122621564482</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4130434782608696</v>
+        <v>0.2217391304347826</v>
       </c>
       <c r="H42" t="n">
-        <v>0.2107843137254902</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="I42" t="n">
-        <v>0.2322410529162535</v>
+        <v>0.7453123591454069</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>2016</v>
       </c>
       <c r="C43" t="n">
-        <v>457</v>
+        <v>754</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -1770,29 +1770,29 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.3234672304439746</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2608695652173913</v>
+        <v>0.1260869565217392</v>
       </c>
       <c r="H43" t="n">
-        <v>0.1617647058823529</v>
+        <v>0.6753246753246753</v>
       </c>
       <c r="I43" t="n">
-        <v>0.005386279635806623</v>
+        <v>0.6243577030559813</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>2016</v>
       </c>
       <c r="C44" t="n">
-        <v>504</v>
+        <v>723</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -1801,122 +1801,122 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4672304439746301</v>
+        <v>0.1078224101479915</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4950980392156863</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="I44" t="n">
-        <v>0.7097719282430361</v>
+        <v>0.4497881546921483</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>2016</v>
       </c>
       <c r="C45" t="n">
-        <v>447</v>
+        <v>268</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.2854122621564482</v>
+        <v>0.6828752642706131</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2217391304347826</v>
+        <v>0.6304347826086956</v>
       </c>
       <c r="H45" t="n">
-        <v>0.5147058823529411</v>
+        <v>0.004329004329004349</v>
       </c>
       <c r="I45" t="n">
-        <v>0.7453123591454069</v>
+        <v>0.04572703506715969</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C46" t="n">
-        <v>754</v>
+        <v>489</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.3234672304439746</v>
+        <v>0.241014799154334</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1260869565217392</v>
+        <v>0.03913043478260869</v>
       </c>
       <c r="H46" t="n">
-        <v>0.6323529411764706</v>
+        <v>0.3203463203463203</v>
       </c>
       <c r="I46" t="n">
-        <v>0.6243577030559813</v>
+        <v>0.4483458036599657</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C47" t="n">
-        <v>723</v>
+        <v>627</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1078224101479915</v>
+        <v>0.1987315010570825</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1304347826086956</v>
+        <v>0.06956521739130436</v>
       </c>
       <c r="H47" t="n">
-        <v>0.6568627450980391</v>
+        <v>0.6580086580086582</v>
       </c>
       <c r="I47" t="n">
-        <v>0.4497881546921483</v>
+        <v>0.5291625349319389</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>2017</v>
       </c>
       <c r="C48" t="n">
-        <v>489</v>
+        <v>390</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -1925,60 +1925,60 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.241014799154334</v>
+        <v>0.4207188160676533</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03913043478260869</v>
+        <v>0.1652173913043478</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2303921568627451</v>
+        <v>0.2294372294372294</v>
       </c>
       <c r="I48" t="n">
-        <v>0.4483458036599657</v>
+        <v>0.336608672135581</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>2017</v>
       </c>
       <c r="C49" t="n">
-        <v>820</v>
+        <v>573</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.5919661733615222</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1652173913043478</v>
+        <v>0.2043478260869565</v>
       </c>
       <c r="H49" t="n">
-        <v>0.5441176470588236</v>
+        <v>0.41991341991342</v>
       </c>
       <c r="I49" t="n">
-        <v>0.7657081042098621</v>
+        <v>0.2065717118903814</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>2017</v>
       </c>
       <c r="C50" t="n">
-        <v>627</v>
+        <v>504</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -1987,60 +1987,60 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1987315010570825</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="G50" t="n">
-        <v>0.06956521739130436</v>
+        <v>0.8608695652173912</v>
       </c>
       <c r="H50" t="n">
-        <v>0.6127450980392157</v>
+        <v>0.2727272727272728</v>
       </c>
       <c r="I50" t="n">
-        <v>0.5291625349319389</v>
+        <v>0.5621337780582349</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>2017</v>
       </c>
       <c r="C51" t="n">
-        <v>390</v>
+        <v>473</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.4207188160676533</v>
+        <v>0.2050739957716702</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1652173913043478</v>
+        <v>0.6608695652173913</v>
       </c>
       <c r="H51" t="n">
-        <v>0.1274509803921569</v>
+        <v>0.3982683982683983</v>
       </c>
       <c r="I51" t="n">
-        <v>0.336608672135581</v>
+        <v>0.5926935905526007</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>2017</v>
       </c>
       <c r="C52" t="n">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -2049,91 +2049,91 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.186046511627907</v>
+        <v>0.3044397463002114</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2043478260869565</v>
+        <v>0.3217391304347826</v>
       </c>
       <c r="H52" t="n">
-        <v>0.3431372549019608</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="I52" t="n">
-        <v>0.2065717118903814</v>
+        <v>0.5949472640403859</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>2017</v>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>424</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0.7441860465116279</v>
+        <v>0.7315010570824525</v>
       </c>
       <c r="G53" t="n">
-        <v>0.8608695652173912</v>
+        <v>0.3956521739130435</v>
       </c>
       <c r="H53" t="n">
-        <v>0.1764705882352942</v>
+        <v>0.1645021645021645</v>
       </c>
       <c r="I53" t="n">
-        <v>0.5621337780582349</v>
+        <v>0.06504101685747776</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>2017</v>
       </c>
       <c r="C54" t="n">
-        <v>473</v>
+        <v>493</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2050739957716702</v>
+        <v>0.5221987315010571</v>
       </c>
       <c r="G54" t="n">
-        <v>0.6608695652173913</v>
+        <v>0.4043478260869565</v>
       </c>
       <c r="H54" t="n">
-        <v>0.3186274509803921</v>
+        <v>0.4675324675324675</v>
       </c>
       <c r="I54" t="n">
-        <v>0.5926935905526007</v>
+        <v>0.3687685928062743</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>2017</v>
       </c>
       <c r="C55" t="n">
-        <v>558</v>
+        <v>642</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -2142,60 +2142,60 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.3044397463002114</v>
+        <v>0.4439746300211418</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3217391304347826</v>
+        <v>0.3956521739130435</v>
       </c>
       <c r="H55" t="n">
-        <v>0.4852941176470589</v>
+        <v>0.41991341991342</v>
       </c>
       <c r="I55" t="n">
-        <v>0.5949472640403859</v>
+        <v>0.2942170738303436</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>2017</v>
       </c>
       <c r="C56" t="n">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0.7315010570824525</v>
+        <v>0.5539112050739958</v>
       </c>
       <c r="G56" t="n">
-        <v>0.3956521739130435</v>
+        <v>0.2913043478260869</v>
       </c>
       <c r="H56" t="n">
-        <v>0.05392156862745101</v>
+        <v>0.2077922077922078</v>
       </c>
       <c r="I56" t="n">
-        <v>0.06504101685747776</v>
+        <v>0.3221400883440009</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>2017</v>
       </c>
       <c r="C57" t="n">
-        <v>493</v>
+        <v>453</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -2204,29 +2204,29 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0.5221987315010571</v>
+        <v>0.2198731501057083</v>
       </c>
       <c r="G57" t="n">
-        <v>0.4043478260869565</v>
+        <v>0.2217391304347826</v>
       </c>
       <c r="H57" t="n">
-        <v>0.3970588235294118</v>
+        <v>0.367965367965368</v>
       </c>
       <c r="I57" t="n">
-        <v>0.3687685928062743</v>
+        <v>0.3095420535472821</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>2017</v>
       </c>
       <c r="C58" t="n">
-        <v>642</v>
+        <v>798</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -2235,29 +2235,29 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.4439746300211418</v>
+        <v>0.1627906976744186</v>
       </c>
       <c r="G58" t="n">
-        <v>0.3956521739130435</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="H58" t="n">
-        <v>0.3431372549019608</v>
+        <v>0.8874458874458875</v>
       </c>
       <c r="I58" t="n">
-        <v>0.2942170738303436</v>
+        <v>0.8326422067970793</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>2017</v>
       </c>
       <c r="C59" t="n">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -2266,29 +2266,29 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>0.5539112050739958</v>
+        <v>0.3319238900634249</v>
       </c>
       <c r="G59" t="n">
-        <v>0.2913043478260869</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1029411764705882</v>
+        <v>0.1558441558441558</v>
       </c>
       <c r="I59" t="n">
-        <v>0.3221400883440009</v>
+        <v>0.3894573154241414</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>2017</v>
       </c>
       <c r="C60" t="n">
-        <v>453</v>
+        <v>667</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -2297,29 +2297,29 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2198731501057083</v>
+        <v>0.3530655391120507</v>
       </c>
       <c r="G60" t="n">
-        <v>0.2217391304347826</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="H60" t="n">
-        <v>0.2843137254901961</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="I60" t="n">
-        <v>0.3095420535472821</v>
+        <v>0.9187099972955917</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>2017</v>
       </c>
       <c r="C61" t="n">
-        <v>798</v>
+        <v>513</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -2328,29 +2328,29 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1627906976744186</v>
+        <v>0.5221987315010571</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1521739130434783</v>
+        <v>0.1695652173913044</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8725490196078431</v>
+        <v>0.5757575757575757</v>
       </c>
       <c r="I61" t="n">
-        <v>0.8326422067970793</v>
+        <v>0.8405300640043269</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>2017</v>
       </c>
       <c r="C62" t="n">
-        <v>387</v>
+        <v>315</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -2359,29 +2359,29 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0.3319238900634249</v>
+        <v>0.3847780126849895</v>
       </c>
       <c r="G62" t="n">
-        <v>0.08695652173913043</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="H62" t="n">
-        <v>0.04411764705882348</v>
+        <v>0.2683982683982684</v>
       </c>
       <c r="I62" t="n">
-        <v>0.3894573154241414</v>
+        <v>0.1425223113675291</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>2017</v>
       </c>
       <c r="C63" t="n">
-        <v>667</v>
+        <v>484</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -2390,29 +2390,29 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.3530655391120507</v>
+        <v>0.3615221987315012</v>
       </c>
       <c r="G63" t="n">
-        <v>0.08695652173913043</v>
+        <v>0.3130434782608695</v>
       </c>
       <c r="H63" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.3203463203463203</v>
       </c>
       <c r="I63" t="n">
-        <v>0.9187099972955917</v>
+        <v>0.2449968448571171</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>2017</v>
       </c>
       <c r="C64" t="n">
-        <v>513</v>
+        <v>471</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -2421,60 +2421,60 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.5221987315010571</v>
+        <v>0.5919661733615222</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1695652173913044</v>
+        <v>0.2</v>
       </c>
       <c r="H64" t="n">
-        <v>0.5196078431372548</v>
+        <v>0.2857142857142858</v>
       </c>
       <c r="I64" t="n">
-        <v>0.8405300640043269</v>
+        <v>0.01108807355990282</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>2017</v>
       </c>
       <c r="C65" t="n">
-        <v>315</v>
+        <v>452</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.3847780126849895</v>
+        <v>0.2621564482029598</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1304347826086956</v>
+        <v>0.208695652173913</v>
       </c>
       <c r="H65" t="n">
-        <v>0.1715686274509803</v>
+        <v>0.5844155844155845</v>
       </c>
       <c r="I65" t="n">
-        <v>0.1425223113675291</v>
+        <v>0.7519381591994951</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>2017</v>
       </c>
       <c r="C66" t="n">
-        <v>484</v>
+        <v>748</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -2483,60 +2483,60 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.3615221987315012</v>
+        <v>0.2980972515856236</v>
       </c>
       <c r="G66" t="n">
-        <v>0.3130434782608695</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2303921568627451</v>
+        <v>0.7359307359307359</v>
       </c>
       <c r="I66" t="n">
-        <v>0.2449968448571171</v>
+        <v>0.6330568827188316</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>2017</v>
       </c>
       <c r="C67" t="n">
-        <v>471</v>
+        <v>709</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.5919661733615222</v>
+        <v>0.1078224101479915</v>
       </c>
       <c r="G67" t="n">
-        <v>0.2</v>
+        <v>0.1217391304347826</v>
       </c>
       <c r="H67" t="n">
-        <v>0.1911764705882353</v>
+        <v>0.6926406926406927</v>
       </c>
       <c r="I67" t="n">
-        <v>0.01108807355990282</v>
+        <v>0.4502839628594608</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>2017</v>
       </c>
       <c r="C68" t="n">
-        <v>510</v>
+        <v>306</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -2545,91 +2545,91 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0.4418604651162791</v>
+        <v>0.6828752642706131</v>
       </c>
       <c r="G68" t="n">
-        <v>0.2913043478260869</v>
+        <v>0.5478260869565217</v>
       </c>
       <c r="H68" t="n">
-        <v>0.5196078431372548</v>
+        <v>0.01731601731601734</v>
       </c>
       <c r="I68" t="n">
-        <v>0.7108987649869287</v>
+        <v>0.04870188407103582</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C69" t="n">
-        <v>452</v>
+        <v>494</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2621564482029598</v>
+        <v>0.2304439746300212</v>
       </c>
       <c r="G69" t="n">
-        <v>0.208695652173913</v>
+        <v>0.008695652173913049</v>
       </c>
       <c r="H69" t="n">
-        <v>0.5294117647058822</v>
+        <v>0.3463203463203463</v>
       </c>
       <c r="I69" t="n">
-        <v>0.7519381591994951</v>
+        <v>0.4509826016406744</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C70" t="n">
-        <v>748</v>
+        <v>606</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.2980972515856236</v>
+        <v>0.1902748414376322</v>
       </c>
       <c r="G70" t="n">
-        <v>0.1043478260869565</v>
+        <v>0.05217391304347826</v>
       </c>
       <c r="H70" t="n">
-        <v>0.7009803921568627</v>
+        <v>0.6883116883116884</v>
       </c>
       <c r="I70" t="n">
-        <v>0.6330568827188316</v>
+        <v>0.5303119084107093</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C71" t="n">
-        <v>709</v>
+        <v>405</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -2638,91 +2638,91 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1078224101479915</v>
+        <v>0.3932346723044398</v>
       </c>
       <c r="G71" t="n">
-        <v>0.1217391304347826</v>
+        <v>0.1478260869565217</v>
       </c>
       <c r="H71" t="n">
-        <v>0.6519607843137254</v>
+        <v>0.2640692640692641</v>
       </c>
       <c r="I71" t="n">
-        <v>0.4502839628594608</v>
+        <v>0.3402821599206707</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>2018</v>
       </c>
       <c r="C72" t="n">
-        <v>494</v>
+        <v>595</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2304439746300212</v>
+        <v>0.145877378435518</v>
       </c>
       <c r="G72" t="n">
-        <v>0.008695652173913049</v>
+        <v>0.1652173913043478</v>
       </c>
       <c r="H72" t="n">
-        <v>0.2598039215686274</v>
+        <v>0.4458874458874459</v>
       </c>
       <c r="I72" t="n">
-        <v>0.4509826016406744</v>
+        <v>0.2115974037681423</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>2018</v>
       </c>
       <c r="C73" t="n">
-        <v>814</v>
+        <v>515</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.5813953488372093</v>
+        <v>0.6871035940803384</v>
       </c>
       <c r="G73" t="n">
-        <v>0.1347826086956521</v>
+        <v>0.7695652173913043</v>
       </c>
       <c r="H73" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.29004329004329</v>
       </c>
       <c r="I73" t="n">
-        <v>0.7683449021905704</v>
+        <v>0.5696610475074373</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>2018</v>
       </c>
       <c r="C74" t="n">
-        <v>606</v>
+        <v>475</v>
       </c>
       <c r="D74" t="n">
         <v>1</v>
@@ -2731,122 +2731,122 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1902748414376322</v>
+        <v>0.2029598308668077</v>
       </c>
       <c r="G74" t="n">
-        <v>0.05217391304347826</v>
+        <v>0.5782608695652174</v>
       </c>
       <c r="H74" t="n">
-        <v>0.6470588235294117</v>
+        <v>0.4112554112554113</v>
       </c>
       <c r="I74" t="n">
-        <v>0.5303119084107093</v>
+        <v>0.5981249436581628</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>2018</v>
       </c>
       <c r="C75" t="n">
-        <v>405</v>
+        <v>557</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.3932346723044398</v>
+        <v>0.3171247357293869</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1478260869565217</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="H75" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.5584415584415585</v>
       </c>
       <c r="I75" t="n">
-        <v>0.3402821599206707</v>
+        <v>0.6008969620481386</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>2018</v>
       </c>
       <c r="C76" t="n">
-        <v>595</v>
+        <v>443</v>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>0.145877378435518</v>
+        <v>0.7378435517970403</v>
       </c>
       <c r="G76" t="n">
-        <v>0.1652173913043478</v>
+        <v>0.2739130434782609</v>
       </c>
       <c r="H76" t="n">
-        <v>0.3725490196078431</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="I76" t="n">
-        <v>0.2115974037681423</v>
+        <v>0.07135130262327616</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>2018</v>
       </c>
       <c r="C77" t="n">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>0.6871035940803384</v>
+        <v>0.5158562367864694</v>
       </c>
       <c r="G77" t="n">
-        <v>0.7695652173913043</v>
+        <v>0.3739130434782608</v>
       </c>
       <c r="H77" t="n">
-        <v>0.196078431372549</v>
+        <v>0.4848484848484848</v>
       </c>
       <c r="I77" t="n">
-        <v>0.5696610475074373</v>
+        <v>0.3753943928603625</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>2018</v>
       </c>
       <c r="C78" t="n">
-        <v>475</v>
+        <v>662</v>
       </c>
       <c r="D78" t="n">
         <v>1</v>
@@ -2855,184 +2855,184 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2029598308668077</v>
+        <v>0.4143763213530656</v>
       </c>
       <c r="G78" t="n">
-        <v>0.5782608695652174</v>
+        <v>0.2782608695652174</v>
       </c>
       <c r="H78" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.4458874458874459</v>
       </c>
       <c r="I78" t="n">
-        <v>0.5981249436581628</v>
+        <v>0.2936311187235194</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>2018</v>
       </c>
       <c r="C79" t="n">
-        <v>557</v>
+        <v>407</v>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>0.3171247357293869</v>
+        <v>0.5285412262156449</v>
       </c>
       <c r="G79" t="n">
-        <v>0.3043478260869565</v>
+        <v>0.2347826086956522</v>
       </c>
       <c r="H79" t="n">
-        <v>0.5</v>
+        <v>0.2337662337662338</v>
       </c>
       <c r="I79" t="n">
-        <v>0.6008969620481386</v>
+        <v>0.3236500495808168</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>2018</v>
       </c>
       <c r="C80" t="n">
-        <v>443</v>
+        <v>461</v>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>0.7378435517970403</v>
+        <v>0.2346723044397463</v>
       </c>
       <c r="G80" t="n">
-        <v>0.2739130434782609</v>
+        <v>0.1826086956521739</v>
       </c>
       <c r="H80" t="n">
-        <v>0.08333333333333337</v>
+        <v>0.4025974025974026</v>
       </c>
       <c r="I80" t="n">
-        <v>0.07135130262327616</v>
+        <v>0.3132155413323718</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>2018</v>
       </c>
       <c r="C81" t="n">
-        <v>502</v>
+        <v>803</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.5158562367864694</v>
+        <v>0.1775898520084566</v>
       </c>
       <c r="G81" t="n">
-        <v>0.3739130434782608</v>
+        <v>0.1565217391304348</v>
       </c>
       <c r="H81" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.9350649350649352</v>
       </c>
       <c r="I81" t="n">
-        <v>0.3753943928603625</v>
+        <v>0.8383665374560532</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>2018</v>
       </c>
       <c r="C82" t="n">
-        <v>662</v>
+        <v>384</v>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>0.4143763213530656</v>
+        <v>0.306553911205074</v>
       </c>
       <c r="G82" t="n">
-        <v>0.2782608695652174</v>
+        <v>0.06956521739130436</v>
       </c>
       <c r="H82" t="n">
-        <v>0.3725490196078431</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="I82" t="n">
-        <v>0.2936311187235194</v>
+        <v>0.3959704318038402</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>2018</v>
       </c>
       <c r="C83" t="n">
-        <v>407</v>
+        <v>673</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.5285412262156449</v>
+        <v>0.3319238900634249</v>
       </c>
       <c r="G83" t="n">
-        <v>0.2347826086956522</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1323529411764706</v>
+        <v>0.367965367965368</v>
       </c>
       <c r="I83" t="n">
-        <v>0.3236500495808168</v>
+        <v>0.9201974217975297</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>2018</v>
       </c>
       <c r="C84" t="n">
-        <v>461</v>
+        <v>511</v>
       </c>
       <c r="D84" t="n">
         <v>1</v>
@@ -3041,91 +3041,91 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.2346723044397463</v>
+        <v>0.5221987315010571</v>
       </c>
       <c r="G84" t="n">
-        <v>0.1826086956521739</v>
+        <v>0.1260869565217392</v>
       </c>
       <c r="H84" t="n">
-        <v>0.3235294117647058</v>
+        <v>0.6147186147186148</v>
       </c>
       <c r="I84" t="n">
-        <v>0.3132155413323718</v>
+        <v>0.8498377355088791</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>2018</v>
       </c>
       <c r="C85" t="n">
-        <v>803</v>
+        <v>329</v>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1775898520084566</v>
+        <v>0.3868921775898521</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1565217391304348</v>
+        <v>0.08260869565217391</v>
       </c>
       <c r="H85" t="n">
-        <v>0.9264705882352942</v>
+        <v>0.2987012987012987</v>
       </c>
       <c r="I85" t="n">
-        <v>0.8383665374560532</v>
+        <v>0.1414630848282701</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>2018</v>
       </c>
       <c r="C86" t="n">
-        <v>384</v>
+        <v>504</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.306553911205074</v>
+        <v>0.3594080338266384</v>
       </c>
       <c r="G86" t="n">
-        <v>0.06956521739130436</v>
+        <v>0.2260869565217392</v>
       </c>
       <c r="H86" t="n">
-        <v>0.07352941176470584</v>
+        <v>0.354978354978355</v>
       </c>
       <c r="I86" t="n">
-        <v>0.3959704318038402</v>
+        <v>0.2575948796538359</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>2018</v>
       </c>
       <c r="C87" t="n">
-        <v>673</v>
+        <v>486</v>
       </c>
       <c r="D87" t="n">
         <v>1</v>
@@ -3134,29 +3134,29 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.3319238900634249</v>
+        <v>0.5348837209302326</v>
       </c>
       <c r="G87" t="n">
-        <v>0.08695652173913043</v>
+        <v>0.1347826086956521</v>
       </c>
       <c r="H87" t="n">
-        <v>0.2843137254901961</v>
+        <v>0.316017316017316</v>
       </c>
       <c r="I87" t="n">
-        <v>0.9201974217975297</v>
+        <v>0.01712791850716666</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>2018</v>
       </c>
       <c r="C88" t="n">
-        <v>511</v>
+        <v>434</v>
       </c>
       <c r="D88" t="n">
         <v>1</v>
@@ -3165,122 +3165,122 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.5221987315010571</v>
+        <v>0.2579281183932347</v>
       </c>
       <c r="G88" t="n">
-        <v>0.1260869565217392</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="H88" t="n">
-        <v>0.5637254901960784</v>
+        <v>0.5974025974025974</v>
       </c>
       <c r="I88" t="n">
-        <v>0.8498377355088791</v>
+        <v>0.7583611286396825</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>2018</v>
       </c>
       <c r="C89" t="n">
-        <v>329</v>
+        <v>739</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.3868921775898521</v>
+        <v>0.2769556025369979</v>
       </c>
       <c r="G89" t="n">
-        <v>0.08260869565217391</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2058823529411764</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="I89" t="n">
-        <v>0.1414630848282701</v>
+        <v>0.6415532317677817</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>2018</v>
       </c>
       <c r="C90" t="n">
-        <v>504</v>
+        <v>706</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0.3594080338266384</v>
+        <v>0.1120507399577167</v>
       </c>
       <c r="G90" t="n">
-        <v>0.2260869565217392</v>
+        <v>0.1173913043478261</v>
       </c>
       <c r="H90" t="n">
-        <v>0.2696078431372549</v>
+        <v>0.7056277056277056</v>
       </c>
       <c r="I90" t="n">
-        <v>0.2575948796538359</v>
+        <v>0.4510952853150636</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>2018</v>
       </c>
       <c r="C91" t="n">
-        <v>486</v>
+        <v>319</v>
       </c>
       <c r="D91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>0.5348837209302326</v>
+        <v>0.704016913319239</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1347826086956521</v>
+        <v>0.5130434782608695</v>
       </c>
       <c r="H91" t="n">
-        <v>0.2254901960784313</v>
+        <v>0.03463203463203463</v>
       </c>
       <c r="I91" t="n">
-        <v>0.01712791850716666</v>
+        <v>0.05208239430271355</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C92" t="n">
-        <v>551</v>
+        <v>500</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -3289,29 +3289,29 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0.4355179704016914</v>
+        <v>0.2473572938689218</v>
       </c>
       <c r="G92" t="n">
-        <v>0.2391304347826087</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.5490196078431373</v>
+        <v>0.3766233766233766</v>
       </c>
       <c r="I92" t="n">
-        <v>0.7121833588749662</v>
+        <v>0.4538898404399172</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C93" t="n">
-        <v>434</v>
+        <v>609</v>
       </c>
       <c r="D93" t="n">
         <v>1</v>
@@ -3320,153 +3320,153 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.2579281183932347</v>
+        <v>0.1881606765327695</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1956521739130435</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="H93" t="n">
-        <v>0.5441176470588236</v>
+        <v>0.7056277056277056</v>
       </c>
       <c r="I93" t="n">
-        <v>0.7583611286396825</v>
+        <v>0.5317542594428921</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C94" t="n">
-        <v>739</v>
+        <v>369</v>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2769556025369979</v>
+        <v>0.4883720930232559</v>
       </c>
       <c r="G94" t="n">
-        <v>0.08695652173913043</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="H94" t="n">
-        <v>0.7303921568627452</v>
+        <v>0.29004329004329</v>
       </c>
       <c r="I94" t="n">
-        <v>0.6415532317677817</v>
+        <v>0.3441359415847833</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C95" t="n">
-        <v>706</v>
+        <v>620</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1120507399577167</v>
+        <v>0.1141649048625793</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1173913043478261</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="H95" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.4588744588744588</v>
       </c>
       <c r="I95" t="n">
-        <v>0.4510952853150636</v>
+        <v>0.2168935364644371</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>2019</v>
       </c>
       <c r="C96" t="n">
-        <v>500</v>
+        <v>524</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2473572938689218</v>
+        <v>0.704016913319239</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>0.691304347826087</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.2987012987012987</v>
       </c>
       <c r="I96" t="n">
-        <v>0.4538898404399172</v>
+        <v>0.577098170017128</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>2019</v>
       </c>
       <c r="C97" t="n">
-        <v>844</v>
+        <v>472</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.5137420718816068</v>
+        <v>0.1902748414376322</v>
       </c>
       <c r="G97" t="n">
-        <v>0.1304347826086956</v>
+        <v>0.5260869565217392</v>
       </c>
       <c r="H97" t="n">
-        <v>0.5931372549019607</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="I97" t="n">
-        <v>0.7710493103759126</v>
+        <v>0.6036239069683584</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>2019</v>
       </c>
       <c r="C98" t="n">
-        <v>609</v>
+        <v>555</v>
       </c>
       <c r="D98" t="n">
         <v>1</v>
@@ -3475,29 +3475,29 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1881606765327695</v>
+        <v>0.3044397463002114</v>
       </c>
       <c r="G98" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.2782608695652174</v>
       </c>
       <c r="H98" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5887445887445888</v>
       </c>
       <c r="I98" t="n">
-        <v>0.5317542594428921</v>
+        <v>0.6068691967907691</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>2019</v>
       </c>
       <c r="C99" t="n">
-        <v>369</v>
+        <v>459</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -3506,60 +3506,60 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.4883720930232559</v>
+        <v>0.7124735729386893</v>
       </c>
       <c r="G99" t="n">
-        <v>0.108695652173913</v>
+        <v>0.2</v>
       </c>
       <c r="H99" t="n">
-        <v>0.196078431372549</v>
+        <v>0.2164502164502165</v>
       </c>
       <c r="I99" t="n">
-        <v>0.3441359415847833</v>
+        <v>0.07799963941224197</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>2019</v>
       </c>
       <c r="C100" t="n">
-        <v>620</v>
+        <v>503</v>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1141649048625793</v>
+        <v>0.5010570824524314</v>
       </c>
       <c r="G100" t="n">
-        <v>0.1304347826086956</v>
+        <v>0.3434782608695652</v>
       </c>
       <c r="H100" t="n">
-        <v>0.3872549019607843</v>
+        <v>0.5064935064935066</v>
       </c>
       <c r="I100" t="n">
-        <v>0.2168935364644371</v>
+        <v>0.382110339853962</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>2019</v>
       </c>
       <c r="C101" t="n">
-        <v>524</v>
+        <v>664</v>
       </c>
       <c r="D101" t="n">
         <v>1</v>
@@ -3568,91 +3568,91 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.704016913319239</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="G101" t="n">
-        <v>0.691304347826087</v>
+        <v>0.2260869565217392</v>
       </c>
       <c r="H101" t="n">
-        <v>0.2058823529411764</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="I101" t="n">
-        <v>0.577098170017128</v>
+        <v>0.2935184350491302</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>2019</v>
       </c>
       <c r="C102" t="n">
-        <v>472</v>
+        <v>439</v>
       </c>
       <c r="D102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1902748414376322</v>
+        <v>0.437632135306554</v>
       </c>
       <c r="G102" t="n">
-        <v>0.5260869565217392</v>
+        <v>0.1869565217391304</v>
       </c>
       <c r="H102" t="n">
-        <v>0.3529411764705882</v>
+        <v>0.2467532467532468</v>
       </c>
       <c r="I102" t="n">
-        <v>0.6036239069683584</v>
+        <v>0.3254529883710446</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>2019</v>
       </c>
       <c r="C103" t="n">
-        <v>555</v>
+        <v>469</v>
       </c>
       <c r="D103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.3044397463002114</v>
+        <v>0.2135306553911205</v>
       </c>
       <c r="G103" t="n">
-        <v>0.2782608695652174</v>
+        <v>0.1869565217391304</v>
       </c>
       <c r="H103" t="n">
-        <v>0.534313725490196</v>
+        <v>0.4415584415584415</v>
       </c>
       <c r="I103" t="n">
-        <v>0.6068691967907691</v>
+        <v>0.3171820066708737</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>2019</v>
       </c>
       <c r="C104" t="n">
-        <v>459</v>
+        <v>791</v>
       </c>
       <c r="D104" t="n">
         <v>1</v>
@@ -3661,29 +3661,29 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.7124735729386893</v>
+        <v>0.1839323467230444</v>
       </c>
       <c r="G104" t="n">
-        <v>0.2</v>
+        <v>0.1565217391304348</v>
       </c>
       <c r="H104" t="n">
-        <v>0.1127450980392157</v>
+        <v>0.9220779220779221</v>
       </c>
       <c r="I104" t="n">
-        <v>0.07799963941224197</v>
+        <v>0.8438204272964933</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>2019</v>
       </c>
       <c r="C105" t="n">
-        <v>503</v>
+        <v>390</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
@@ -3692,29 +3692,29 @@
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>0.5010570824524314</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="G105" t="n">
-        <v>0.3434782608695652</v>
+        <v>0.05652173913043476</v>
       </c>
       <c r="H105" t="n">
-        <v>0.4411764705882353</v>
+        <v>0.2077922077922078</v>
       </c>
       <c r="I105" t="n">
-        <v>0.382110339853962</v>
+        <v>0.4025736951230507</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>2019</v>
       </c>
       <c r="C106" t="n">
-        <v>664</v>
+        <v>697</v>
       </c>
       <c r="D106" t="n">
         <v>1</v>
@@ -3723,91 +3723,91 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.3488372093023256</v>
+        <v>0.3298097251585624</v>
       </c>
       <c r="G106" t="n">
-        <v>0.2260869565217392</v>
+        <v>0.09130434782608693</v>
       </c>
       <c r="H106" t="n">
-        <v>0.4068627450980392</v>
+        <v>0.3896103896103896</v>
       </c>
       <c r="I106" t="n">
-        <v>0.2935184350491302</v>
+        <v>0.9216848462994678</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>2019</v>
       </c>
       <c r="C107" t="n">
-        <v>439</v>
+        <v>508</v>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.437632135306554</v>
+        <v>0.53276955602537</v>
       </c>
       <c r="G107" t="n">
-        <v>0.1869565217391304</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="H107" t="n">
-        <v>0.1470588235294118</v>
+        <v>0.6277056277056277</v>
       </c>
       <c r="I107" t="n">
-        <v>0.3254529883710446</v>
+        <v>0.8585369151717299</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B108" t="n">
         <v>2019</v>
       </c>
       <c r="C108" t="n">
-        <v>469</v>
+        <v>336</v>
       </c>
       <c r="D108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>0.2135306553911205</v>
+        <v>0.3530655391120507</v>
       </c>
       <c r="G108" t="n">
-        <v>0.1869565217391304</v>
+        <v>0.05652173913043476</v>
       </c>
       <c r="H108" t="n">
-        <v>0.3676470588235294</v>
+        <v>0.329004329004329</v>
       </c>
       <c r="I108" t="n">
-        <v>0.3171820066708737</v>
+        <v>0.1409898133958354</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>2019</v>
       </c>
       <c r="C109" t="n">
-        <v>791</v>
+        <v>510</v>
       </c>
       <c r="D109" t="n">
         <v>1</v>
@@ -3816,60 +3816,60 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.1839323467230444</v>
+        <v>0.3509513742071881</v>
       </c>
       <c r="G109" t="n">
-        <v>0.1565217391304348</v>
+        <v>0.2</v>
       </c>
       <c r="H109" t="n">
-        <v>0.9117647058823528</v>
+        <v>0.380952380952381</v>
       </c>
       <c r="I109" t="n">
-        <v>0.8438204272964933</v>
+        <v>0.2700576940412873</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>2019</v>
       </c>
       <c r="C110" t="n">
-        <v>390</v>
+        <v>504</v>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.3023255813953488</v>
+        <v>0.5983086680761101</v>
       </c>
       <c r="G110" t="n">
-        <v>0.05652173913043476</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="H110" t="n">
-        <v>0.1029411764705882</v>
+        <v>0.354978354978355</v>
       </c>
       <c r="I110" t="n">
-        <v>0.4025736951230507</v>
+        <v>0.0234607410078429</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>2019</v>
       </c>
       <c r="C111" t="n">
-        <v>697</v>
+        <v>449</v>
       </c>
       <c r="D111" t="n">
         <v>1</v>
@@ -3878,29 +3878,29 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.3298097251585624</v>
+        <v>0.2494714587737843</v>
       </c>
       <c r="G111" t="n">
-        <v>0.09130434782608693</v>
+        <v>0.2130434782608696</v>
       </c>
       <c r="H111" t="n">
-        <v>0.3088235294117647</v>
+        <v>0.6017316017316017</v>
       </c>
       <c r="I111" t="n">
-        <v>0.9216848462994678</v>
+        <v>0.7646038042008474</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B112" t="n">
         <v>2019</v>
       </c>
       <c r="C112" t="n">
-        <v>508</v>
+        <v>776</v>
       </c>
       <c r="D112" t="n">
         <v>1</v>
@@ -3909,29 +3909,29 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.53276955602537</v>
+        <v>0.2579281183932347</v>
       </c>
       <c r="G112" t="n">
-        <v>0.1043478260869565</v>
+        <v>0.08260869565217391</v>
       </c>
       <c r="H112" t="n">
-        <v>0.5784313725490196</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="I112" t="n">
-        <v>0.8585369151717299</v>
+        <v>0.6498467502028307</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>2019</v>
       </c>
       <c r="C113" t="n">
-        <v>336</v>
+        <v>709</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
@@ -3940,60 +3940,60 @@
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>0.3530655391120507</v>
+        <v>0.1120507399577167</v>
       </c>
       <c r="G113" t="n">
-        <v>0.05652173913043476</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="H113" t="n">
-        <v>0.2401960784313726</v>
+        <v>0.7099567099567101</v>
       </c>
       <c r="I113" t="n">
-        <v>0.1409898133958354</v>
+        <v>0.4522671955287119</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B114" t="n">
         <v>2019</v>
       </c>
       <c r="C114" t="n">
-        <v>510</v>
+        <v>338</v>
       </c>
       <c r="D114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>0.3509513742071881</v>
+        <v>0.6828752642706131</v>
       </c>
       <c r="G114" t="n">
-        <v>0.2</v>
+        <v>0.4043478260869565</v>
       </c>
       <c r="H114" t="n">
-        <v>0.2990196078431372</v>
+        <v>0.05627705627705626</v>
       </c>
       <c r="I114" t="n">
-        <v>0.2700576940412873</v>
+        <v>0.05586856576219246</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C115" t="n">
-        <v>504</v>
+        <v>729</v>
       </c>
       <c r="D115" t="n">
         <v>1</v>
@@ -4002,29 +4002,29 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.5983086680761101</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="G115" t="n">
-        <v>0.1043478260869565</v>
+        <v>0.1652173913043478</v>
       </c>
       <c r="H115" t="n">
-        <v>0.2696078431372549</v>
+        <v>0.5844155844155845</v>
       </c>
       <c r="I115" t="n">
-        <v>0.0234607410078429</v>
+        <v>0.9983322816190388</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C116" t="n">
-        <v>566</v>
+        <v>543</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
@@ -4033,29 +4033,29 @@
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>0.4101479915433405</v>
+        <v>0.2219873150105708</v>
       </c>
       <c r="G116" t="n">
-        <v>0.208695652173913</v>
+        <v>0.02608695652173913</v>
       </c>
       <c r="H116" t="n">
-        <v>0.5588235294117647</v>
+        <v>0.341991341991342</v>
       </c>
       <c r="I116" t="n">
-        <v>0.7136257099071486</v>
+        <v>0.4570449833228163</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C117" t="n">
-        <v>449</v>
+        <v>641</v>
       </c>
       <c r="D117" t="n">
         <v>1</v>
@@ -4064,91 +4064,91 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.2494714587737843</v>
+        <v>0.1733615221987315</v>
       </c>
       <c r="G117" t="n">
-        <v>0.2130434782608696</v>
+        <v>0.07391304347826089</v>
       </c>
       <c r="H117" t="n">
-        <v>0.5490196078431373</v>
+        <v>0.670995670995671</v>
       </c>
       <c r="I117" t="n">
-        <v>0.7646038042008474</v>
+        <v>0.5334895880284864</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C118" t="n">
-        <v>776</v>
+        <v>383</v>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.2579281183932347</v>
+        <v>0.3234672304439746</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08260869565217391</v>
+        <v>0.2130434782608696</v>
       </c>
       <c r="H118" t="n">
-        <v>0.7303921568627452</v>
+        <v>0.2813852813852813</v>
       </c>
       <c r="I118" t="n">
-        <v>0.6498467502028307</v>
+        <v>0.3481474803930407</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C119" t="n">
-        <v>709</v>
+        <v>637</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.1120507399577167</v>
+        <v>0.0697674418604651</v>
       </c>
       <c r="G119" t="n">
-        <v>0.1043478260869565</v>
+        <v>0.1695652173913044</v>
       </c>
       <c r="H119" t="n">
-        <v>0.6715686274509804</v>
+        <v>0.3766233766233766</v>
       </c>
       <c r="I119" t="n">
-        <v>0.4522671955287119</v>
+        <v>0.2224826467141441</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>2020</v>
       </c>
       <c r="C120" t="n">
-        <v>729</v>
+        <v>499</v>
       </c>
       <c r="D120" t="n">
         <v>1</v>
@@ -4157,122 +4157,122 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.3488372093023256</v>
+        <v>0.6892177589852009</v>
       </c>
       <c r="G120" t="n">
-        <v>0.1652173913043478</v>
+        <v>0.6782608695652175</v>
       </c>
       <c r="H120" t="n">
-        <v>0.5294117647058822</v>
+        <v>0.2510822510822511</v>
       </c>
       <c r="I120" t="n">
-        <v>0.9983322816190388</v>
+        <v>0.5844676823221853</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>2020</v>
       </c>
       <c r="C121" t="n">
-        <v>543</v>
+        <v>449</v>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.2219873150105708</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="G121" t="n">
-        <v>0.02608695652173913</v>
+        <v>0.5869565217391304</v>
       </c>
       <c r="H121" t="n">
-        <v>0.2549019607843137</v>
+        <v>0.329004329004329</v>
       </c>
       <c r="I121" t="n">
-        <v>0.4570449833228163</v>
+        <v>0.6091454070134319</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B122" t="n">
         <v>2020</v>
       </c>
       <c r="C122" t="n">
-        <v>814</v>
+        <v>538</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.4883720930232559</v>
+        <v>0.2748414376321353</v>
       </c>
       <c r="G122" t="n">
-        <v>0.1565217391304348</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="H122" t="n">
-        <v>0.5980392156862744</v>
+        <v>0.5541125541125542</v>
       </c>
       <c r="I122" t="n">
-        <v>0.7737987920310105</v>
+        <v>0.612863968268277</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>2020</v>
       </c>
       <c r="C123" t="n">
-        <v>641</v>
+        <v>433</v>
       </c>
       <c r="D123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>0.1733615221987315</v>
+        <v>0.6765327695560255</v>
       </c>
       <c r="G123" t="n">
-        <v>0.07391304347826089</v>
+        <v>0.2347826086956522</v>
       </c>
       <c r="H123" t="n">
-        <v>0.6274509803921569</v>
+        <v>0.2034632034632035</v>
       </c>
       <c r="I123" t="n">
-        <v>0.5334895880284864</v>
+        <v>0.08500856395925371</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B124" t="n">
         <v>2020</v>
       </c>
       <c r="C124" t="n">
-        <v>383</v>
+        <v>487</v>
       </c>
       <c r="D124" t="n">
         <v>0</v>
@@ -4281,29 +4281,29 @@
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>0.3234672304439746</v>
+        <v>0.4630021141649049</v>
       </c>
       <c r="G124" t="n">
-        <v>0.2130434782608696</v>
+        <v>0.3173913043478261</v>
       </c>
       <c r="H124" t="n">
-        <v>0.1862745098039216</v>
+        <v>0.4415584415584415</v>
       </c>
       <c r="I124" t="n">
-        <v>0.3481474803930407</v>
+        <v>0.3889389705219508</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B125" t="n">
         <v>2020</v>
       </c>
       <c r="C125" t="n">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="D125" t="n">
         <v>1</v>
@@ -4312,91 +4312,91 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.0697674418604651</v>
+        <v>0.3128964059196617</v>
       </c>
       <c r="G125" t="n">
-        <v>0.1695652173913044</v>
+        <v>0.2434782608695652</v>
       </c>
       <c r="H125" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.432900432900433</v>
       </c>
       <c r="I125" t="n">
-        <v>0.2224826467141441</v>
+        <v>0.2938790228071757</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B126" t="n">
         <v>2020</v>
       </c>
       <c r="C126" t="n">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="D126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>0.6892177589852009</v>
+        <v>0.4587737843551798</v>
       </c>
       <c r="G126" t="n">
-        <v>0.6782608695652175</v>
+        <v>0.2652173913043478</v>
       </c>
       <c r="H126" t="n">
-        <v>0.1519607843137255</v>
+        <v>0.2337662337662338</v>
       </c>
       <c r="I126" t="n">
-        <v>0.5844676823221853</v>
+        <v>0.3275489047146849</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B127" t="n">
         <v>2020</v>
       </c>
       <c r="C127" t="n">
-        <v>449</v>
+        <v>480</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.186046511627907</v>
+        <v>0.226215644820296</v>
       </c>
       <c r="G127" t="n">
-        <v>0.5869565217391304</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="H127" t="n">
-        <v>0.2401960784313726</v>
+        <v>0.41991341991342</v>
       </c>
       <c r="I127" t="n">
-        <v>0.6091454070134319</v>
+        <v>0.3214865230325432</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B128" t="n">
         <v>2020</v>
       </c>
       <c r="C128" t="n">
-        <v>538</v>
+        <v>790</v>
       </c>
       <c r="D128" t="n">
         <v>1</v>
@@ -4405,91 +4405,91 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.2748414376321353</v>
+        <v>0.1078224101479915</v>
       </c>
       <c r="G128" t="n">
-        <v>0.2608695652173913</v>
+        <v>0.208695652173913</v>
       </c>
       <c r="H128" t="n">
-        <v>0.4950980392156863</v>
+        <v>0.8008658008658009</v>
       </c>
       <c r="I128" t="n">
-        <v>0.612863968268277</v>
+        <v>0.8490038763183989</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>2020</v>
       </c>
       <c r="C129" t="n">
-        <v>433</v>
+        <v>406</v>
       </c>
       <c r="D129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0.6765327695560255</v>
+        <v>0.2811839323467231</v>
       </c>
       <c r="G129" t="n">
-        <v>0.2347826086956522</v>
+        <v>0.09130434782608693</v>
       </c>
       <c r="H129" t="n">
-        <v>0.09803921568627449</v>
+        <v>0.2077922077922078</v>
       </c>
       <c r="I129" t="n">
-        <v>0.08500856395925371</v>
+        <v>0.4092896421166501</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B130" t="n">
         <v>2020</v>
       </c>
       <c r="C130" t="n">
-        <v>487</v>
+        <v>642</v>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.4630021141649049</v>
+        <v>0.2832980972515856</v>
       </c>
       <c r="G130" t="n">
-        <v>0.3173913043478261</v>
+        <v>0.1260869565217392</v>
       </c>
       <c r="H130" t="n">
-        <v>0.3676470588235294</v>
+        <v>0.3073593073593073</v>
       </c>
       <c r="I130" t="n">
-        <v>0.3889389705219508</v>
+        <v>0.9231722708014063</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>2020</v>
       </c>
       <c r="C131" t="n">
-        <v>625</v>
+        <v>533</v>
       </c>
       <c r="D131" t="n">
         <v>1</v>
@@ -4498,29 +4498,29 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.3128964059196617</v>
+        <v>0.4883720930232559</v>
       </c>
       <c r="G131" t="n">
-        <v>0.2434782608695652</v>
+        <v>0.1260869565217392</v>
       </c>
       <c r="H131" t="n">
-        <v>0.3578431372549019</v>
+        <v>0.5887445887445888</v>
       </c>
       <c r="I131" t="n">
-        <v>0.2938790228071757</v>
+        <v>0.8666501397277564</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>2020</v>
       </c>
       <c r="C132" t="n">
-        <v>478</v>
+        <v>834</v>
       </c>
       <c r="D132" t="n">
         <v>0</v>
@@ -4529,60 +4529,60 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.4587737843551798</v>
+        <v>0.2579281183932347</v>
       </c>
       <c r="G132" t="n">
-        <v>0.2652173913043478</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="H132" t="n">
-        <v>0.1323529411764706</v>
+        <v>0.5974025974025974</v>
       </c>
       <c r="I132" t="n">
-        <v>0.3275489047146849</v>
+        <v>0.1119399621382855</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>2020</v>
       </c>
       <c r="C133" t="n">
-        <v>480</v>
+        <v>346</v>
       </c>
       <c r="D133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>0.226215644820296</v>
+        <v>0.3509513742071881</v>
       </c>
       <c r="G133" t="n">
-        <v>0.2826086956521739</v>
+        <v>0.05217391304347826</v>
       </c>
       <c r="H133" t="n">
-        <v>0.3431372549019608</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="I133" t="n">
-        <v>0.3214865230325432</v>
+        <v>0.1411250338051024</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B134" t="n">
         <v>2020</v>
       </c>
       <c r="C134" t="n">
-        <v>790</v>
+        <v>509</v>
       </c>
       <c r="D134" t="n">
         <v>1</v>
@@ -4591,60 +4591,60 @@
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.1078224101479915</v>
+        <v>0.3150105708245243</v>
       </c>
       <c r="G134" t="n">
-        <v>0.208695652173913</v>
+        <v>0.2217391304347826</v>
       </c>
       <c r="H134" t="n">
-        <v>0.7745098039215685</v>
+        <v>0.329004329004329</v>
       </c>
       <c r="I134" t="n">
-        <v>0.8490038763183989</v>
+        <v>0.2823627512845941</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>2020</v>
       </c>
       <c r="C135" t="n">
-        <v>406</v>
+        <v>487</v>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.2811839323467231</v>
+        <v>0.5073995771670191</v>
       </c>
       <c r="G135" t="n">
-        <v>0.09130434782608693</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="H135" t="n">
-        <v>0.1029411764705882</v>
+        <v>0.3203463203463203</v>
       </c>
       <c r="I135" t="n">
-        <v>0.4092896421166501</v>
+        <v>0.03013161453168678</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B136" t="n">
         <v>2020</v>
       </c>
       <c r="C136" t="n">
-        <v>642</v>
+        <v>431</v>
       </c>
       <c r="D136" t="n">
         <v>1</v>
@@ -4653,29 +4653,29 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.2832980972515856</v>
+        <v>0.2389006342494715</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1260869565217392</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="H136" t="n">
-        <v>0.2156862745098039</v>
+        <v>0.58008658008658</v>
       </c>
       <c r="I136" t="n">
-        <v>0.9231722708014063</v>
+        <v>0.7706661858829893</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B137" t="n">
         <v>2020</v>
       </c>
       <c r="C137" t="n">
-        <v>533</v>
+        <v>726</v>
       </c>
       <c r="D137" t="n">
         <v>1</v>
@@ -4684,29 +4684,29 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.4883720930232559</v>
+        <v>0.2389006342494715</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1260869565217392</v>
+        <v>0.1173913043478261</v>
       </c>
       <c r="H137" t="n">
-        <v>0.534313725490196</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="I137" t="n">
-        <v>0.8666501397277564</v>
+        <v>0.6579149012891012</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B138" t="n">
         <v>2020</v>
       </c>
       <c r="C138" t="n">
-        <v>834</v>
+        <v>706</v>
       </c>
       <c r="D138" t="n">
         <v>0</v>
@@ -4715,29 +4715,29 @@
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>0.2579281183932347</v>
+        <v>0.1099365750528541</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1739130434782609</v>
+        <v>0.1217391304347826</v>
       </c>
       <c r="H138" t="n">
-        <v>0.5441176470588236</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="I138" t="n">
-        <v>0.1119399621382855</v>
+        <v>0.4537546200306501</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>2020</v>
       </c>
       <c r="C139" t="n">
-        <v>346</v>
+        <v>427</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
@@ -4746,29 +4746,29 @@
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>0.3509513742071881</v>
+        <v>0.6617336152219874</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05217391304347826</v>
+        <v>0.3391304347826087</v>
       </c>
       <c r="H139" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="I139" t="n">
-        <v>0.1411250338051024</v>
+        <v>0.06006039844947275</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C140" t="n">
-        <v>509</v>
+        <v>755</v>
       </c>
       <c r="D140" t="n">
         <v>1</v>
@@ -4777,122 +4777,122 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.3150105708245243</v>
+        <v>0.3382663847780127</v>
       </c>
       <c r="G140" t="n">
-        <v>0.2217391304347826</v>
+        <v>0.1869565217391304</v>
       </c>
       <c r="H140" t="n">
-        <v>0.2401960784313726</v>
+        <v>0.670995670995671</v>
       </c>
       <c r="I140" t="n">
-        <v>0.2823627512845941</v>
+        <v>0.9991886775443972</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C141" t="n">
-        <v>487</v>
+        <v>570</v>
       </c>
       <c r="D141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.5073995771670191</v>
+        <v>0.2050739957716702</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1304347826086956</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="H141" t="n">
-        <v>0.2303921568627451</v>
+        <v>0.4025974025974026</v>
       </c>
       <c r="I141" t="n">
-        <v>0.03013161453168678</v>
+        <v>0.4604931037591273</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C142" t="n">
-        <v>609</v>
+        <v>651</v>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.3932346723044398</v>
+        <v>0.1966173361522199</v>
       </c>
       <c r="G142" t="n">
-        <v>0.2478260869565218</v>
+        <v>0.07391304347826089</v>
       </c>
       <c r="H142" t="n">
-        <v>0.534313725490196</v>
+        <v>0.7142857142857144</v>
       </c>
       <c r="I142" t="n">
-        <v>0.7152258180834759</v>
+        <v>0.5355404309023708</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C143" t="n">
-        <v>431</v>
+        <v>395</v>
       </c>
       <c r="D143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>0.2389006342494715</v>
+        <v>0.306553911205074</v>
       </c>
       <c r="G143" t="n">
-        <v>0.2826086956521739</v>
+        <v>0.1826086956521739</v>
       </c>
       <c r="H143" t="n">
-        <v>0.5245098039215685</v>
+        <v>0.341991341991342</v>
       </c>
       <c r="I143" t="n">
-        <v>0.7706661858829893</v>
+        <v>0.3523393130803212</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C144" t="n">
-        <v>726</v>
+        <v>625</v>
       </c>
       <c r="D144" t="n">
         <v>1</v>
@@ -4901,60 +4901,60 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.2389006342494715</v>
+        <v>0.05708245243128962</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1173913043478261</v>
+        <v>0.1826086956521739</v>
       </c>
       <c r="H144" t="n">
-        <v>0.6568627450980391</v>
+        <v>0.4502164502164502</v>
       </c>
       <c r="I144" t="n">
-        <v>0.6579149012891012</v>
+        <v>0.2283196610475076</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C145" t="n">
-        <v>706</v>
+        <v>509</v>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.1099365750528541</v>
+        <v>0.7124735729386893</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1217391304347826</v>
+        <v>0.5521739130434782</v>
       </c>
       <c r="H145" t="n">
-        <v>0.6225490196078431</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="I145" t="n">
-        <v>0.4537546200306501</v>
+        <v>0.5917470476877309</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B146" t="n">
         <v>2021</v>
       </c>
       <c r="C146" t="n">
-        <v>755</v>
+        <v>467</v>
       </c>
       <c r="D146" t="n">
         <v>1</v>
@@ -4963,60 +4963,60 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.3382663847780127</v>
+        <v>0.1818181818181819</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1869565217391304</v>
+        <v>0.5608695652173914</v>
       </c>
       <c r="H146" t="n">
-        <v>0.6274509803921569</v>
+        <v>0.406926406926407</v>
       </c>
       <c r="I146" t="n">
-        <v>0.9991886775443972</v>
+        <v>0.6146894437933832</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>2021</v>
       </c>
       <c r="C147" t="n">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.2050739957716702</v>
+        <v>0.2769556025369979</v>
       </c>
       <c r="G147" t="n">
-        <v>0.03478260869565217</v>
+        <v>0.2565217391304348</v>
       </c>
       <c r="H147" t="n">
-        <v>0.3235294117647058</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="I147" t="n">
-        <v>0.4604931037591273</v>
+        <v>0.6188812764806635</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B148" t="n">
         <v>2021</v>
       </c>
       <c r="C148" t="n">
-        <v>769</v>
+        <v>456</v>
       </c>
       <c r="D148" t="n">
         <v>0</v>
@@ -5025,153 +5025,153 @@
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>0.4143763213530656</v>
+        <v>0.6321353065539113</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1347826086956521</v>
+        <v>0.2391304347826087</v>
       </c>
       <c r="H148" t="n">
-        <v>0.6862745098039216</v>
+        <v>0.2857142857142858</v>
       </c>
       <c r="I148" t="n">
-        <v>0.7765933471558639</v>
+        <v>0.09233300279455525</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>2021</v>
       </c>
       <c r="C149" t="n">
-        <v>651</v>
+        <v>495</v>
       </c>
       <c r="D149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>0.1966173361522199</v>
+        <v>0.452431289640592</v>
       </c>
       <c r="G149" t="n">
-        <v>0.07391304347826089</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="H149" t="n">
-        <v>0.6764705882352942</v>
+        <v>0.5064935064935066</v>
       </c>
       <c r="I149" t="n">
-        <v>0.5355404309023708</v>
+        <v>0.3958577481294512</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B150" t="n">
         <v>2021</v>
       </c>
       <c r="C150" t="n">
-        <v>395</v>
+        <v>650</v>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.306553911205074</v>
+        <v>0.2938689217758985</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1826086956521739</v>
+        <v>0.2260869565217392</v>
       </c>
       <c r="H150" t="n">
-        <v>0.2549019607843137</v>
+        <v>0.4935064935064935</v>
       </c>
       <c r="I150" t="n">
-        <v>0.3523393130803212</v>
+        <v>0.2946678085279004</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B151" t="n">
         <v>2021</v>
       </c>
       <c r="C151" t="n">
-        <v>625</v>
+        <v>461</v>
       </c>
       <c r="D151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>0.05708245243128962</v>
+        <v>0.397463002114165</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1826086956521739</v>
+        <v>0.2434782608695652</v>
       </c>
       <c r="H151" t="n">
-        <v>0.3774509803921569</v>
+        <v>0.2943722943722943</v>
       </c>
       <c r="I151" t="n">
-        <v>0.2283196610475076</v>
+        <v>0.3299377986117373</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B152" t="n">
         <v>2021</v>
       </c>
       <c r="C152" t="n">
-        <v>509</v>
+        <v>479</v>
       </c>
       <c r="D152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.7124735729386893</v>
+        <v>0.2050739957716702</v>
       </c>
       <c r="G152" t="n">
-        <v>0.5521739130434782</v>
+        <v>0.2217391304347826</v>
       </c>
       <c r="H152" t="n">
-        <v>0.2107843137254902</v>
+        <v>0.4978354978354978</v>
       </c>
       <c r="I152" t="n">
-        <v>0.5917470476877309</v>
+        <v>0.3260614802127466</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>2021</v>
       </c>
       <c r="C153" t="n">
-        <v>467</v>
+        <v>793</v>
       </c>
       <c r="D153" t="n">
         <v>1</v>
@@ -5180,60 +5180,60 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.1818181818181819</v>
+        <v>0.1247357293868922</v>
       </c>
       <c r="G153" t="n">
-        <v>0.5608695652173914</v>
+        <v>0.1434782608695652</v>
       </c>
       <c r="H153" t="n">
-        <v>0.3284313725490196</v>
+        <v>0.9220779220779221</v>
       </c>
       <c r="I153" t="n">
-        <v>0.6146894437933832</v>
+        <v>0.8539394212566482</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B154" t="n">
         <v>2021</v>
       </c>
       <c r="C154" t="n">
-        <v>564</v>
+        <v>420</v>
       </c>
       <c r="D154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>0.2769556025369979</v>
+        <v>0.2494714587737843</v>
       </c>
       <c r="G154" t="n">
-        <v>0.2565217391304348</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="H154" t="n">
-        <v>0.5686274509803921</v>
+        <v>0.2467532467532468</v>
       </c>
       <c r="I154" t="n">
-        <v>0.6188812764806635</v>
+        <v>0.4161182727846391</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B155" t="n">
         <v>2021</v>
       </c>
       <c r="C155" t="n">
-        <v>456</v>
+        <v>611</v>
       </c>
       <c r="D155" t="n">
         <v>1</v>
@@ -5242,91 +5242,91 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.6321353065539113</v>
+        <v>0.1966173361522199</v>
       </c>
       <c r="G155" t="n">
-        <v>0.2391304347826087</v>
+        <v>0.07826086956521738</v>
       </c>
       <c r="H155" t="n">
-        <v>0.1911764705882353</v>
+        <v>0.3766233766233766</v>
       </c>
       <c r="I155" t="n">
-        <v>0.09233300279455525</v>
+        <v>0.9246596953033444</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B156" t="n">
         <v>2021</v>
       </c>
       <c r="C156" t="n">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="D156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.452431289640592</v>
+        <v>0.4608879492600423</v>
       </c>
       <c r="G156" t="n">
-        <v>0.3260869565217391</v>
+        <v>0.09565217391304348</v>
       </c>
       <c r="H156" t="n">
-        <v>0.4411764705882353</v>
+        <v>0.6623376623376624</v>
       </c>
       <c r="I156" t="n">
-        <v>0.3958577481294512</v>
+        <v>0.8742224826467142</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B157" t="n">
         <v>2021</v>
       </c>
       <c r="C157" t="n">
-        <v>650</v>
+        <v>835</v>
       </c>
       <c r="D157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>0.2938689217758985</v>
+        <v>0.2748414376321353</v>
       </c>
       <c r="G157" t="n">
-        <v>0.2260869565217392</v>
+        <v>0.1826086956521739</v>
       </c>
       <c r="H157" t="n">
-        <v>0.426470588235294</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="I157" t="n">
-        <v>0.2946678085279004</v>
+        <v>0.1175065356531146</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B158" t="n">
         <v>2021</v>
       </c>
       <c r="C158" t="n">
-        <v>461</v>
+        <v>370</v>
       </c>
       <c r="D158" t="n">
         <v>0</v>
@@ -5335,29 +5335,29 @@
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>0.397463002114165</v>
+        <v>0.4249471458773785</v>
       </c>
       <c r="G158" t="n">
-        <v>0.2434782608695652</v>
+        <v>0.06086956521739129</v>
       </c>
       <c r="H158" t="n">
-        <v>0.2009803921568627</v>
+        <v>0.3896103896103896</v>
       </c>
       <c r="I158" t="n">
-        <v>0.3299377986117373</v>
+        <v>0.1418462093211936</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B159" t="n">
         <v>2021</v>
       </c>
       <c r="C159" t="n">
-        <v>479</v>
+        <v>510</v>
       </c>
       <c r="D159" t="n">
         <v>1</v>
@@ -5366,29 +5366,29 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.2050739957716702</v>
+        <v>0.3086680761099366</v>
       </c>
       <c r="G159" t="n">
-        <v>0.2217391304347826</v>
+        <v>0.2043478260869565</v>
       </c>
       <c r="H159" t="n">
-        <v>0.4313725490196079</v>
+        <v>0.3896103896103896</v>
       </c>
       <c r="I159" t="n">
-        <v>0.3260614802127466</v>
+        <v>0.2945100513837557</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B160" t="n">
         <v>2021</v>
       </c>
       <c r="C160" t="n">
-        <v>793</v>
+        <v>511</v>
       </c>
       <c r="D160" t="n">
         <v>1</v>
@@ -5397,60 +5397,60 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.1247357293868922</v>
+        <v>0.477801268498943</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1434782608695652</v>
+        <v>0.1217391304347826</v>
       </c>
       <c r="H160" t="n">
-        <v>0.9117647058823528</v>
+        <v>0.4025974025974026</v>
       </c>
       <c r="I160" t="n">
-        <v>0.8539394212566482</v>
+        <v>0.03709546560894261</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B161" t="n">
         <v>2021</v>
       </c>
       <c r="C161" t="n">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.2494714587737843</v>
+        <v>0.2156448202959831</v>
       </c>
       <c r="G161" t="n">
-        <v>0.08695652173913043</v>
+        <v>0.3</v>
       </c>
       <c r="H161" t="n">
-        <v>0.1470588235294118</v>
+        <v>0.6623376623376624</v>
       </c>
       <c r="I161" t="n">
-        <v>0.4161182727846391</v>
+        <v>0.7765482736861082</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B162" t="n">
         <v>2021</v>
       </c>
       <c r="C162" t="n">
-        <v>611</v>
+        <v>799</v>
       </c>
       <c r="D162" t="n">
         <v>1</v>
@@ -5459,60 +5459,60 @@
         <v>1</v>
       </c>
       <c r="F162" t="n">
-        <v>0.1966173361522199</v>
+        <v>0.1839323467230444</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07826086956521738</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="H162" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.7792207792207793</v>
       </c>
       <c r="I162" t="n">
-        <v>0.9246596953033444</v>
+        <v>0.665780221761471</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B163" t="n">
         <v>2021</v>
       </c>
       <c r="C163" t="n">
-        <v>515</v>
+        <v>704</v>
       </c>
       <c r="D163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>0.4608879492600423</v>
+        <v>0.09936575052854127</v>
       </c>
       <c r="G163" t="n">
-        <v>0.09565217391304348</v>
+        <v>0.1347826086956521</v>
       </c>
       <c r="H163" t="n">
-        <v>0.6176470588235294</v>
+        <v>0.7099567099567101</v>
       </c>
       <c r="I163" t="n">
-        <v>0.8742224826467142</v>
+        <v>0.4555800955557558</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B164" t="n">
         <v>2021</v>
       </c>
       <c r="C164" t="n">
-        <v>835</v>
+        <v>442</v>
       </c>
       <c r="D164" t="n">
         <v>0</v>
@@ -5521,60 +5521,60 @@
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>0.2748414376321353</v>
+        <v>0.6405919661733616</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1826086956521739</v>
+        <v>0.4</v>
       </c>
       <c r="H164" t="n">
-        <v>0.6568627450980391</v>
+        <v>0.09090909090909088</v>
       </c>
       <c r="I164" t="n">
-        <v>0.1175065356531146</v>
+        <v>0.06468042909943228</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C165" t="n">
-        <v>370</v>
+        <v>690</v>
       </c>
       <c r="D165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.4249471458773785</v>
+        <v>0.2854122621564482</v>
       </c>
       <c r="G165" t="n">
-        <v>0.06086956521739129</v>
+        <v>0.1565217391304348</v>
       </c>
       <c r="H165" t="n">
-        <v>0.3088235294117647</v>
+        <v>0.7705627705627707</v>
       </c>
       <c r="I165" t="n">
-        <v>0.1418462093211936</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C166" t="n">
-        <v>510</v>
+        <v>606</v>
       </c>
       <c r="D166" t="n">
         <v>1</v>
@@ -5583,91 +5583,91 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.3086680761099366</v>
+        <v>0.160676532769556</v>
       </c>
       <c r="G166" t="n">
-        <v>0.2043478260869565</v>
+        <v>0.05217391304347826</v>
       </c>
       <c r="H166" t="n">
-        <v>0.3088235294117647</v>
+        <v>0.8008658008658009</v>
       </c>
       <c r="I166" t="n">
-        <v>0.2945100513837557</v>
+        <v>0.5378842513296673</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C167" t="n">
-        <v>511</v>
+        <v>373</v>
       </c>
       <c r="D167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>0.477801268498943</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1217391304347826</v>
+        <v>0.1565217391304348</v>
       </c>
       <c r="H167" t="n">
-        <v>0.3235294117647058</v>
+        <v>0.4025974025974026</v>
       </c>
       <c r="I167" t="n">
-        <v>0.03709546560894261</v>
+        <v>0.356711439646624</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C168" t="n">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="D168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>0.346723044397463</v>
+        <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>0.2478260869565218</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="H168" t="n">
-        <v>0.5931372549019607</v>
+        <v>0.5627705627705628</v>
       </c>
       <c r="I168" t="n">
-        <v>0.7170062201388263</v>
+        <v>0.2344271161994051</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C169" t="n">
-        <v>418</v>
+        <v>466</v>
       </c>
       <c r="D169" t="n">
         <v>1</v>
@@ -5676,29 +5676,29 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.2156448202959831</v>
+        <v>0.1374207188160677</v>
       </c>
       <c r="G169" t="n">
-        <v>0.3</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="H169" t="n">
-        <v>0.6176470588235294</v>
+        <v>0.4805194805194805</v>
       </c>
       <c r="I169" t="n">
-        <v>0.7765482736861082</v>
+        <v>0.6202785540430902</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C170" t="n">
-        <v>799</v>
+        <v>535</v>
       </c>
       <c r="D170" t="n">
         <v>1</v>
@@ -5707,29 +5707,29 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.1839323467230444</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1043478260869565</v>
+        <v>0.2304347826086957</v>
       </c>
       <c r="H170" t="n">
-        <v>0.75</v>
+        <v>0.6926406926406927</v>
       </c>
       <c r="I170" t="n">
-        <v>0.665780221761471</v>
+        <v>0.6248985846930497</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C171" t="n">
-        <v>704</v>
+        <v>478</v>
       </c>
       <c r="D171" t="n">
         <v>0</v>
@@ -5738,122 +5738,122 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.09936575052854127</v>
+        <v>0.5221987315010571</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1347826086956521</v>
+        <v>0.208695652173913</v>
       </c>
       <c r="H171" t="n">
-        <v>0.6715686274509804</v>
+        <v>0.3766233766233766</v>
       </c>
       <c r="I171" t="n">
-        <v>0.4555800955557558</v>
+        <v>0.1000180293879025</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B172" t="n">
         <v>2022</v>
       </c>
       <c r="C172" t="n">
-        <v>690</v>
+        <v>486</v>
       </c>
       <c r="D172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>0.2854122621564482</v>
+        <v>0.2811839323467231</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1565217391304348</v>
+        <v>0.2652173913043478</v>
       </c>
       <c r="H172" t="n">
-        <v>0.7401960784313726</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="I172" t="n">
-        <v>1</v>
+        <v>0.4028666726764625</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B173" t="n">
         <v>2022</v>
       </c>
       <c r="C173" t="n">
-        <v>802</v>
+        <v>673</v>
       </c>
       <c r="D173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.3319238900634249</v>
+        <v>0.2790697674418605</v>
       </c>
       <c r="G173" t="n">
-        <v>0.108695652173913</v>
+        <v>0.1869565217391304</v>
       </c>
       <c r="H173" t="n">
-        <v>0.6911764705882353</v>
+        <v>0.5974025974025974</v>
       </c>
       <c r="I173" t="n">
-        <v>0.7794555124853513</v>
+        <v>0.2959073289461824</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B174" t="n">
         <v>2022</v>
       </c>
       <c r="C174" t="n">
-        <v>606</v>
+        <v>464</v>
       </c>
       <c r="D174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>0.160676532769556</v>
+        <v>0.2875264270613108</v>
       </c>
       <c r="G174" t="n">
-        <v>0.05217391304347826</v>
+        <v>0.2130434782608696</v>
       </c>
       <c r="H174" t="n">
-        <v>0.7745098039215685</v>
+        <v>0.3766233766233766</v>
       </c>
       <c r="I174" t="n">
-        <v>0.5378842513296673</v>
+        <v>0.3326196700622015</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B175" t="n">
         <v>2022</v>
       </c>
       <c r="C175" t="n">
-        <v>373</v>
+        <v>465</v>
       </c>
       <c r="D175" t="n">
         <v>0</v>
@@ -5862,29 +5862,29 @@
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>0.3023255813953488</v>
+        <v>0.1374207188160677</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1565217391304348</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="H175" t="n">
-        <v>0.3235294117647058</v>
+        <v>0.5627705627705628</v>
       </c>
       <c r="I175" t="n">
-        <v>0.356711439646624</v>
+        <v>0.3309294149463626</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B176" t="n">
         <v>2022</v>
       </c>
       <c r="C176" t="n">
-        <v>622</v>
+        <v>721</v>
       </c>
       <c r="D176" t="n">
         <v>1</v>
@@ -5893,60 +5893,60 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0</v>
+        <v>0.07610993657505286</v>
       </c>
       <c r="G176" t="n">
-        <v>0.108695652173913</v>
+        <v>0.1130434782608696</v>
       </c>
       <c r="H176" t="n">
-        <v>0.5049019607843137</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
-        <v>0.2344271161994051</v>
+        <v>0.8586495988461191</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B177" t="n">
         <v>2022</v>
       </c>
       <c r="C177" t="n">
-        <v>466</v>
+        <v>407</v>
       </c>
       <c r="D177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>0.1374207188160677</v>
+        <v>0.2135306553911205</v>
       </c>
       <c r="G177" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.06956521739130436</v>
       </c>
       <c r="H177" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="I177" t="n">
-        <v>0.6202785540430902</v>
+        <v>0.4230370503921395</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B178" t="n">
         <v>2022</v>
       </c>
       <c r="C178" t="n">
-        <v>535</v>
+        <v>618</v>
       </c>
       <c r="D178" t="n">
         <v>1</v>
@@ -5955,29 +5955,29 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.2558139534883721</v>
+        <v>0.1649048625792812</v>
       </c>
       <c r="G178" t="n">
-        <v>0.2304347826086957</v>
+        <v>0.06521739130434784</v>
       </c>
       <c r="H178" t="n">
-        <v>0.6519607843137254</v>
+        <v>0.4458874458874459</v>
       </c>
       <c r="I178" t="n">
-        <v>0.6248985846930497</v>
+        <v>0.9261245830704046</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B179" t="n">
         <v>2022</v>
       </c>
       <c r="C179" t="n">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D179" t="n">
         <v>1</v>
@@ -5986,29 +5986,29 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.5221987315010571</v>
+        <v>0.3171247357293869</v>
       </c>
       <c r="G179" t="n">
-        <v>0.208695652173913</v>
+        <v>0.06521739130434784</v>
       </c>
       <c r="H179" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.7792207792207793</v>
       </c>
       <c r="I179" t="n">
-        <v>0.1000180293879025</v>
+        <v>0.881299017398359</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B180" t="n">
         <v>2022</v>
       </c>
       <c r="C180" t="n">
-        <v>486</v>
+        <v>803</v>
       </c>
       <c r="D180" t="n">
         <v>0</v>
@@ -6017,91 +6017,91 @@
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>0.2811839323467231</v>
+        <v>0.2135306553911205</v>
       </c>
       <c r="G180" t="n">
-        <v>0.2652173913043478</v>
+        <v>0.1217391304347826</v>
       </c>
       <c r="H180" t="n">
-        <v>0.5686274509803921</v>
+        <v>0.8051948051948052</v>
       </c>
       <c r="I180" t="n">
-        <v>0.4028666726764625</v>
+        <v>0.1233886234562338</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B181" t="n">
         <v>2022</v>
       </c>
       <c r="C181" t="n">
-        <v>673</v>
+        <v>364</v>
       </c>
       <c r="D181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>0.2790697674418605</v>
+        <v>0.4080338266384778</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1869565217391304</v>
+        <v>0.03913043478260869</v>
       </c>
       <c r="H181" t="n">
-        <v>0.5441176470588236</v>
+        <v>0.4935064935064935</v>
       </c>
       <c r="I181" t="n">
-        <v>0.2959073289461824</v>
+        <v>0.1431758766789868</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B182" t="n">
         <v>2022</v>
       </c>
       <c r="C182" t="n">
-        <v>464</v>
+        <v>508</v>
       </c>
       <c r="D182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.2875264270613108</v>
+        <v>0.2219873150105708</v>
       </c>
       <c r="G182" t="n">
-        <v>0.2130434782608696</v>
+        <v>0.1826086956521739</v>
       </c>
       <c r="H182" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.4891774891774892</v>
       </c>
       <c r="I182" t="n">
-        <v>0.3326196700622015</v>
+        <v>0.3064995943387723</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B183" t="n">
         <v>2022</v>
       </c>
       <c r="C183" t="n">
-        <v>465</v>
+        <v>487</v>
       </c>
       <c r="D183" t="n">
         <v>1</v>
@@ -6110,29 +6110,29 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.1374207188160677</v>
+        <v>0.4228329809725159</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1739130434782609</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="H183" t="n">
-        <v>0.5049019607843137</v>
+        <v>0.4891774891774892</v>
       </c>
       <c r="I183" t="n">
-        <v>0.3309294149463626</v>
+        <v>0.04439736770936631</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B184" t="n">
         <v>2022</v>
       </c>
       <c r="C184" t="n">
-        <v>721</v>
+        <v>395</v>
       </c>
       <c r="D184" t="n">
         <v>1</v>
@@ -6141,84 +6141,84 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.07610993657505286</v>
+        <v>0.2198731501057083</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1130434782608696</v>
+        <v>0.2391304347826087</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0.7402597402597404</v>
       </c>
       <c r="I184" t="n">
-        <v>0.8586495988461191</v>
+        <v>0.7822726043450825</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B185" t="n">
         <v>2022</v>
       </c>
       <c r="C185" t="n">
-        <v>407</v>
+        <v>768</v>
       </c>
       <c r="D185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.2135306553911205</v>
+        <v>0.08879492600422836</v>
       </c>
       <c r="G185" t="n">
-        <v>0.06956521739130436</v>
+        <v>0.05217391304347826</v>
       </c>
       <c r="H185" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.9004329004329006</v>
       </c>
       <c r="I185" t="n">
-        <v>0.4230370503921395</v>
+        <v>0.6734652483548182</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>2022</v>
       </c>
       <c r="C186" t="n">
-        <v>618</v>
+        <v>677</v>
       </c>
       <c r="D186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>0.1649048625792812</v>
+        <v>0.08456659619450316</v>
       </c>
       <c r="G186" t="n">
-        <v>0.06521739130434784</v>
+        <v>0.09130434782608693</v>
       </c>
       <c r="H186" t="n">
-        <v>0.3725490196078431</v>
+        <v>0.7965367965367967</v>
       </c>
       <c r="I186" t="n">
-        <v>0.9261245830704046</v>
+        <v>0.4577436221040296</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -6228,270 +6228,22 @@
         <v>473</v>
       </c>
       <c r="D187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>0.3171247357293869</v>
+        <v>0.5348837209302326</v>
       </c>
       <c r="G187" t="n">
-        <v>0.06521739130434784</v>
+        <v>0.3304347826086956</v>
       </c>
       <c r="H187" t="n">
-        <v>0.75</v>
+        <v>0.1471861471861471</v>
       </c>
       <c r="I187" t="n">
-        <v>0.881299017398359</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="B188" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C188" t="n">
-        <v>803</v>
-      </c>
-      <c r="D188" t="n">
-        <v>0</v>
-      </c>
-      <c r="E188" t="n">
-        <v>0</v>
-      </c>
-      <c r="F188" t="n">
-        <v>0.2135306553911205</v>
-      </c>
-      <c r="G188" t="n">
-        <v>0.1217391304347826</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0.7794117647058822</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0.1233886234562338</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>Poland</t>
-        </is>
-      </c>
-      <c r="B189" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C189" t="n">
-        <v>364</v>
-      </c>
-      <c r="D189" t="n">
-        <v>0</v>
-      </c>
-      <c r="E189" t="n">
-        <v>0</v>
-      </c>
-      <c r="F189" t="n">
-        <v>0.4080338266384778</v>
-      </c>
-      <c r="G189" t="n">
-        <v>0.03913043478260869</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0.426470588235294</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0.1431758766789868</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="B190" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C190" t="n">
-        <v>508</v>
-      </c>
-      <c r="D190" t="n">
-        <v>1</v>
-      </c>
-      <c r="E190" t="n">
-        <v>1</v>
-      </c>
-      <c r="F190" t="n">
-        <v>0.2219873150105708</v>
-      </c>
-      <c r="G190" t="n">
-        <v>0.1826086956521739</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0.4215686274509803</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0.3064995943387723</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>Slovenia</t>
-        </is>
-      </c>
-      <c r="B191" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C191" t="n">
-        <v>487</v>
-      </c>
-      <c r="D191" t="n">
-        <v>1</v>
-      </c>
-      <c r="E191" t="n">
-        <v>1</v>
-      </c>
-      <c r="F191" t="n">
-        <v>0.4228329809725159</v>
-      </c>
-      <c r="G191" t="n">
-        <v>0.08695652173913043</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0.4215686274509803</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0.04439736770936631</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>Finland</t>
-        </is>
-      </c>
-      <c r="B192" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C192" t="n">
-        <v>522</v>
-      </c>
-      <c r="D192" t="n">
-        <v>0</v>
-      </c>
-      <c r="E192" t="n">
-        <v>0</v>
-      </c>
-      <c r="F192" t="n">
-        <v>0.3298097251585624</v>
-      </c>
-      <c r="G192" t="n">
-        <v>0.208695652173913</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0.6813725490196079</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0.7189218426034436</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="B193" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C193" t="n">
-        <v>395</v>
-      </c>
-      <c r="D193" t="n">
-        <v>1</v>
-      </c>
-      <c r="E193" t="n">
-        <v>1</v>
-      </c>
-      <c r="F193" t="n">
-        <v>0.2198731501057083</v>
-      </c>
-      <c r="G193" t="n">
-        <v>0.2391304347826087</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0.7058823529411764</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0.7822726043450825</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="B194" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C194" t="n">
-        <v>768</v>
-      </c>
-      <c r="D194" t="n">
-        <v>1</v>
-      </c>
-      <c r="E194" t="n">
-        <v>1</v>
-      </c>
-      <c r="F194" t="n">
-        <v>0.08879492600422836</v>
-      </c>
-      <c r="G194" t="n">
-        <v>0.05217391304347826</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0.8872549019607843</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0.6734652483548182</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="B195" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C195" t="n">
-        <v>677</v>
-      </c>
-      <c r="D195" t="n">
-        <v>0</v>
-      </c>
-      <c r="E195" t="n">
-        <v>0</v>
-      </c>
-      <c r="F195" t="n">
-        <v>0.08456659619450316</v>
-      </c>
-      <c r="G195" t="n">
-        <v>0.09130434782608693</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0.7696078431372548</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0.4577436221040296</v>
+        <v>0.06968358424231491</v>
       </c>
     </row>
   </sheetData>

--- a/data/obtained_data/original_data_policy_scaled.xlsx
+++ b/data/obtained_data/original_data_policy_scaled.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I187"/>
+  <dimension ref="A1:I191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +483,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>2015</v>
       </c>
       <c r="C2" t="n">
-        <v>316</v>
+        <v>431</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -499,122 +499,122 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2494714587737843</v>
+        <v>0.4397463002114166</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1347826086956521</v>
+        <v>0.3521739130434782</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2554112554112554</v>
+        <v>0.05945945945945952</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4438835301541513</v>
+        <v>0.4924542516221535</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2015</v>
       </c>
       <c r="C3" t="n">
-        <v>632</v>
+        <v>316</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2219873150105708</v>
+        <v>0.2494714587737843</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1043478260869565</v>
+        <v>0.1347826086956521</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6017316017316017</v>
+        <v>0.318918918918919</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5277877941043903</v>
+        <v>0.4799873629978857</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>2015</v>
       </c>
       <c r="C4" t="n">
-        <v>359</v>
+        <v>632</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3932346723044398</v>
+        <v>0.2219873150105708</v>
       </c>
       <c r="G4" t="n">
-        <v>0.191304347826087</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.7513513513513514</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3298251149373479</v>
+        <v>0.5704634377506137</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>2015</v>
       </c>
       <c r="C5" t="n">
-        <v>571</v>
+        <v>359</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2156448202959831</v>
+        <v>0.3932346723044398</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3434782608695652</v>
+        <v>0.191304347826087</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3852813852813853</v>
+        <v>0.2378378378378379</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1973541873253404</v>
+        <v>0.3569953097280614</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>2015</v>
       </c>
       <c r="C6" t="n">
-        <v>488</v>
+        <v>571</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -623,29 +623,29 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.704016913319239</v>
+        <v>0.2156448202959831</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0.3434782608695652</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2467532467532468</v>
+        <v>0.4810810810810811</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5468538718110521</v>
+        <v>0.214148581982551</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>2015</v>
       </c>
       <c r="C7" t="n">
-        <v>456</v>
+        <v>488</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -654,29 +654,29 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2241014799154334</v>
+        <v>0.704016913319239</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8739130434782609</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3463203463203463</v>
+        <v>0.3081081081081082</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5819210312809882</v>
+        <v>0.5910228681134415</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>2015</v>
       </c>
       <c r="C8" t="n">
-        <v>516</v>
+        <v>456</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -685,153 +685,153 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2727272727272728</v>
+        <v>0.2241014799154334</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3608695652173913</v>
+        <v>0.8739130434782609</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5151515151515151</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="I8" t="n">
-        <v>0.583115478229514</v>
+        <v>0.628836666747673</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>2015</v>
       </c>
       <c r="C9" t="n">
-        <v>398</v>
+        <v>516</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7061310782241015</v>
+        <v>0.2727272727272728</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6173913043478261</v>
+        <v>0.3608695652173913</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1168831168831169</v>
+        <v>0.6432432432432433</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05350220860001809</v>
+        <v>0.6301246688862425</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>2015</v>
       </c>
       <c r="C10" t="n">
-        <v>490</v>
+        <v>398</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.53276955602537</v>
+        <v>0.7061310782241015</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4347826086956522</v>
+        <v>0.6173913043478261</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4155844155844156</v>
+        <v>0.145945945945946</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3557198233119985</v>
+        <v>0.05902938102991562</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>2015</v>
       </c>
       <c r="C11" t="n">
-        <v>637</v>
+        <v>490</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4566596194503171</v>
+        <v>0.53276955602537</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5652173913043479</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3463203463203463</v>
+        <v>0.5189189189189189</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2966961146669072</v>
+        <v>0.3849182240151643</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>2015</v>
       </c>
       <c r="C12" t="n">
-        <v>404</v>
+        <v>637</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5560253699788584</v>
+        <v>0.4566596194503171</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3434782608695652</v>
+        <v>0.5652173913043479</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3199990985306049</v>
+        <v>0.3212714768281124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>2015</v>
       </c>
       <c r="C13" t="n">
-        <v>447</v>
+        <v>404</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -840,29 +840,29 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2071881606765328</v>
+        <v>0.5560253699788584</v>
       </c>
       <c r="G13" t="n">
-        <v>0.308695652173913</v>
+        <v>0.3434782608695652</v>
       </c>
       <c r="H13" t="n">
-        <v>0.29004329004329</v>
+        <v>0.1891891891891893</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3030965473722169</v>
+        <v>0.3463996694937908</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>2015</v>
       </c>
       <c r="C14" t="n">
-        <v>379</v>
+        <v>447</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -871,60 +871,60 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3382663847780127</v>
+        <v>0.2071881606765328</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2</v>
+        <v>0.308695652173913</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1255411255411256</v>
+        <v>0.3621621621621622</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3767916704227892</v>
+        <v>0.3281732241366739</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>2015</v>
       </c>
       <c r="C15" t="n">
-        <v>643</v>
+        <v>379</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3784355179704018</v>
+        <v>0.3382663847780127</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1478260869565217</v>
+        <v>0.2</v>
       </c>
       <c r="H15" t="n">
-        <v>0.29004329004329</v>
+        <v>0.1567567567567568</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9157351482917155</v>
+        <v>0.4076405258937033</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>2015</v>
       </c>
       <c r="C16" t="n">
-        <v>523</v>
+        <v>643</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -933,91 +933,91 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5179704016913319</v>
+        <v>0.3784355179704018</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2565217391304348</v>
+        <v>0.1478260869565217</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5497835497835497</v>
+        <v>0.3621621621621622</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8201568556747496</v>
+        <v>0.9887968115871586</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>2015</v>
       </c>
       <c r="C17" t="n">
-        <v>286</v>
+        <v>523</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3763213530655392</v>
+        <v>0.5179704016913319</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2478260869565218</v>
+        <v>0.2565217391304348</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2251082251082251</v>
+        <v>0.6864864864864866</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1464211665013972</v>
+        <v>0.8857323385744489</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>2015</v>
       </c>
       <c r="C18" t="n">
-        <v>459</v>
+        <v>286</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3276955602536998</v>
+        <v>0.3763213530655392</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.2478260869565218</v>
       </c>
       <c r="H18" t="n">
-        <v>0.29004329004329</v>
+        <v>0.2810810810810811</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2193500405661228</v>
+        <v>0.1592262266397724</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>2015</v>
       </c>
       <c r="C19" t="n">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1026,91 +1026,91 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.3276955602536998</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3043478260869565</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2424242424242424</v>
+        <v>0.3621621621621622</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.237867262873946</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>2015</v>
       </c>
       <c r="C20" t="n">
-        <v>451</v>
+        <v>247</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2706131078224101</v>
+        <v>0.3382663847780127</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2391304347826087</v>
+        <v>0.2782608695652174</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5757575757575757</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7385738754169295</v>
+        <v>0.003912610269994232</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2015</v>
       </c>
       <c r="C21" t="n">
-        <v>728</v>
+        <v>449</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1035940803382664</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1217391304347826</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7056277056277056</v>
+        <v>0.3027027027027027</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4493148832597134</v>
+        <v>0.001336605992855233</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>2015</v>
       </c>
       <c r="C22" t="n">
-        <v>259</v>
+        <v>329</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -1119,184 +1119,184 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.6828752642706131</v>
+        <v>0.3424947145877379</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7391304347826086</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.2756756756756757</v>
       </c>
       <c r="I22" t="n">
-        <v>0.04315784729108452</v>
+        <v>0.003961214124279966</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C23" t="n">
-        <v>339</v>
+        <v>451</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2600422832980973</v>
+        <v>0.2706131078224101</v>
       </c>
       <c r="G23" t="n">
-        <v>0.08695652173913043</v>
+        <v>0.2391304347826087</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2770562770562771</v>
+        <v>0.7189189189189189</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4459794464977913</v>
+        <v>0.7977593623174317</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C24" t="n">
-        <v>633</v>
+        <v>728</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2093023255813954</v>
+        <v>0.1035940803382664</v>
       </c>
       <c r="G24" t="n">
-        <v>0.08260869565217391</v>
+        <v>0.1217391304347826</v>
       </c>
       <c r="H24" t="n">
-        <v>0.6320346320346322</v>
+        <v>0.8810810810810812</v>
       </c>
       <c r="I24" t="n">
-        <v>0.5283286757414587</v>
+        <v>0.4858441274393059</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C25" t="n">
-        <v>376</v>
+        <v>259</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4439746300211418</v>
+        <v>0.6828752642706131</v>
       </c>
       <c r="G25" t="n">
-        <v>0.208695652173913</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2077922077922078</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3331380149643921</v>
+        <v>0.04787479647135995</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>2016</v>
       </c>
       <c r="C26" t="n">
-        <v>580</v>
+        <v>418</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2177589852008457</v>
+        <v>0.4460887949260043</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2782608695652174</v>
+        <v>0.2869565217391304</v>
       </c>
       <c r="H26" t="n">
-        <v>0.406926406926407</v>
+        <v>0.08108108108108114</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2018389975660329</v>
+        <v>0.5006926049235703</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>2016</v>
       </c>
       <c r="C27" t="n">
-        <v>498</v>
+        <v>339</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6976744186046512</v>
+        <v>0.2600422832980973</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9521739130434783</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2467532467532468</v>
+        <v>0.345945945945946</v>
       </c>
       <c r="I27" t="n">
-        <v>0.5545388984043991</v>
+        <v>0.4822474422221679</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>2016</v>
       </c>
       <c r="C28" t="n">
-        <v>464</v>
+        <v>633</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1305,122 +1305,122 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.211416490486258</v>
+        <v>0.2093023255813954</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7652173913043478</v>
+        <v>0.08260869565217391</v>
       </c>
       <c r="H28" t="n">
-        <v>0.3593073593073593</v>
+        <v>0.7891891891891891</v>
       </c>
       <c r="I28" t="n">
-        <v>0.5872847741819165</v>
+        <v>0.5710466840020414</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>2016</v>
       </c>
       <c r="C29" t="n">
-        <v>553</v>
+        <v>376</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2896405919661734</v>
+        <v>0.4439746300211418</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3521739130434782</v>
+        <v>0.208695652173913</v>
       </c>
       <c r="H29" t="n">
-        <v>0.5324675324675325</v>
+        <v>0.2594594594594595</v>
       </c>
       <c r="I29" t="n">
-        <v>0.589020102767511</v>
+        <v>0.3605676930180564</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>2016</v>
       </c>
       <c r="C30" t="n">
-        <v>409</v>
+        <v>580</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.2177589852008457</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.2782608695652174</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1385281385281386</v>
+        <v>0.5081081081081081</v>
       </c>
       <c r="I30" t="n">
-        <v>0.05909131884972507</v>
+        <v>0.2189846654839729</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>2016</v>
       </c>
       <c r="C31" t="n">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.5581395348837209</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4217391304347826</v>
+        <v>0.9521739130434783</v>
       </c>
       <c r="H31" t="n">
-        <v>0.4372294372294372</v>
+        <v>0.3081081081081082</v>
       </c>
       <c r="I31" t="n">
-        <v>0.3622554764265755</v>
+        <v>0.5993098252691438</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>2016</v>
       </c>
       <c r="C32" t="n">
-        <v>649</v>
+        <v>464</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1429,215 +1429,215 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4312896405919663</v>
+        <v>0.211416490486258</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.7652173913043478</v>
       </c>
       <c r="H32" t="n">
-        <v>0.3852813852813853</v>
+        <v>0.4486486486486486</v>
       </c>
       <c r="I32" t="n">
-        <v>0.2952312268998467</v>
+        <v>0.6346205254076649</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>2016</v>
       </c>
       <c r="C33" t="n">
-        <v>410</v>
+        <v>553</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.572938689217759</v>
+        <v>0.2896405919661734</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3347826086956521</v>
+        <v>0.3521739130434782</v>
       </c>
       <c r="H33" t="n">
-        <v>0.1731601731601731</v>
+        <v>0.664864864864865</v>
       </c>
       <c r="I33" t="n">
-        <v>0.3209231046605969</v>
+        <v>0.6364917737976621</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>2016</v>
       </c>
       <c r="C34" t="n">
-        <v>442</v>
+        <v>409</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2219873150105708</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2565217391304348</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3203463203463203</v>
+        <v>0.172972972972973</v>
       </c>
       <c r="I34" t="n">
-        <v>0.3061615433156044</v>
+        <v>0.06505625896133549</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>2016</v>
       </c>
       <c r="C35" t="n">
-        <v>815</v>
+        <v>501</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1670190274841437</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1869565217391304</v>
+        <v>0.4217391304347826</v>
       </c>
       <c r="H35" t="n">
-        <v>0.8528138528138529</v>
+        <v>0.5459459459459459</v>
       </c>
       <c r="I35" t="n">
-        <v>0.8266248985846927</v>
+        <v>0.391965782886583</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>2016</v>
       </c>
       <c r="C36" t="n">
-        <v>381</v>
+        <v>649</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.3509513742071881</v>
+        <v>0.4312896405919663</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1304347826086956</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1385281385281386</v>
+        <v>0.4810810810810811</v>
       </c>
       <c r="I36" t="n">
-        <v>0.3830794194537095</v>
+        <v>0.319691851563829</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>2016</v>
       </c>
       <c r="C37" t="n">
-        <v>643</v>
+        <v>410</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3763213530655392</v>
+        <v>0.572938689217759</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1173913043478261</v>
+        <v>0.3347826086956521</v>
       </c>
       <c r="H37" t="n">
-        <v>0.3073593073593073</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="I37" t="n">
-        <v>0.9172225727936536</v>
+        <v>0.3473960485066465</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>2016</v>
       </c>
       <c r="C38" t="n">
-        <v>520</v>
+        <v>442</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.5243128964059197</v>
+        <v>0.2219873150105708</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2173913043478261</v>
+        <v>0.2565217391304348</v>
       </c>
       <c r="H38" t="n">
-        <v>0.5411255411255411</v>
+        <v>0.4</v>
       </c>
       <c r="I38" t="n">
-        <v>0.8305688271883169</v>
+        <v>0.3314782862280978</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>2016</v>
       </c>
       <c r="C39" t="n">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -1646,29 +1646,29 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3911205073995773</v>
+        <v>0.3509513742071881</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1869565217391304</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="H39" t="n">
-        <v>0.2337662337662338</v>
+        <v>0.172972972972973</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1441674930136123</v>
+        <v>0.4144207635665507</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>2016</v>
       </c>
       <c r="C40" t="n">
-        <v>472</v>
+        <v>643</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -1677,29 +1677,29 @@
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3615221987315012</v>
+        <v>0.3763213530655392</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4130434782608696</v>
+        <v>0.1173913043478261</v>
       </c>
       <c r="H40" t="n">
-        <v>0.303030303030303</v>
+        <v>0.3837837837837837</v>
       </c>
       <c r="I40" t="n">
-        <v>0.2322410529162535</v>
+        <v>0.9904007387785851</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>2016</v>
       </c>
       <c r="C41" t="n">
-        <v>457</v>
+        <v>520</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -1708,60 +1708,60 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.5243128964059197</v>
       </c>
       <c r="G41" t="n">
-        <v>0.2608695652173913</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="H41" t="n">
-        <v>0.2597402597402598</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="I41" t="n">
-        <v>0.005386279635806623</v>
+        <v>0.8969598289144329</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>2016</v>
       </c>
       <c r="C42" t="n">
-        <v>447</v>
+        <v>307</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2854122621564482</v>
+        <v>0.3911205073995773</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2217391304347826</v>
+        <v>0.1869565217391304</v>
       </c>
       <c r="H42" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2918918918918919</v>
       </c>
       <c r="I42" t="n">
-        <v>0.7453123591454069</v>
+        <v>0.1567960339254901</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>2016</v>
       </c>
       <c r="C43" t="n">
-        <v>754</v>
+        <v>472</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -1770,29 +1770,29 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.3234672304439746</v>
+        <v>0.3615221987315012</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1260869565217392</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="H43" t="n">
-        <v>0.6753246753246753</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="I43" t="n">
-        <v>0.6243577030559813</v>
+        <v>0.2517679651996403</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>2016</v>
       </c>
       <c r="C44" t="n">
-        <v>723</v>
+        <v>261</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -1801,60 +1801,60 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1078224101479915</v>
+        <v>0.3319238900634249</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1304347826086956</v>
+        <v>0.2260869565217392</v>
       </c>
       <c r="H44" t="n">
-        <v>0.696969696969697</v>
+        <v>0.172972972972973</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4497881546921483</v>
+        <v>0.004228535322851057</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>2016</v>
       </c>
       <c r="C45" t="n">
-        <v>268</v>
+        <v>457</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.6828752642706131</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6304347826086956</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="H45" t="n">
-        <v>0.004329004329004349</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="I45" t="n">
-        <v>0.04572703506715969</v>
+        <v>0.007144766579989748</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C46" t="n">
-        <v>489</v>
+        <v>348</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -1863,29 +1863,29 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.241014799154334</v>
+        <v>0.3403805496828753</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03913043478260869</v>
+        <v>0.3304347826086956</v>
       </c>
       <c r="H46" t="n">
-        <v>0.3203463203463203</v>
+        <v>0.2324324324324325</v>
       </c>
       <c r="I46" t="n">
-        <v>0.4483458036599657</v>
+        <v>0.001944154171425572</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C47" t="n">
-        <v>627</v>
+        <v>447</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -1894,29 +1894,29 @@
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1987315010570825</v>
+        <v>0.2854122621564482</v>
       </c>
       <c r="G47" t="n">
-        <v>0.06956521739130436</v>
+        <v>0.2217391304347826</v>
       </c>
       <c r="H47" t="n">
-        <v>0.6580086580086582</v>
+        <v>0.7135135135135136</v>
       </c>
       <c r="I47" t="n">
-        <v>0.5291625349319389</v>
+        <v>0.8050256385331358</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C48" t="n">
-        <v>390</v>
+        <v>723</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -1925,29 +1925,29 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.4207188160676533</v>
+        <v>0.1078224101479915</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1652173913043478</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2294372294372294</v>
+        <v>0.8702702702702703</v>
       </c>
       <c r="I48" t="n">
-        <v>0.336608672135581</v>
+        <v>0.4863544679093053</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C49" t="n">
-        <v>573</v>
+        <v>268</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -1956,91 +1956,91 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.186046511627907</v>
+        <v>0.6828752642706131</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2043478260869565</v>
+        <v>0.6304347826086956</v>
       </c>
       <c r="H49" t="n">
-        <v>0.41991341991342</v>
+        <v>0.005405405405405406</v>
       </c>
       <c r="I49" t="n">
-        <v>0.2065717118903814</v>
+        <v>0.05064521616564188</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>2017</v>
       </c>
       <c r="C50" t="n">
-        <v>504</v>
+        <v>453</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.7441860465116279</v>
+        <v>0.4080338266384778</v>
       </c>
       <c r="G50" t="n">
-        <v>0.8608695652173912</v>
+        <v>0.2260869565217392</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2727272727272728</v>
+        <v>0.1027027027027028</v>
       </c>
       <c r="I50" t="n">
-        <v>0.5621337780582349</v>
+        <v>0.5089552601521299</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>2017</v>
       </c>
       <c r="C51" t="n">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2050739957716702</v>
+        <v>0.241014799154334</v>
       </c>
       <c r="G51" t="n">
-        <v>0.6608695652173913</v>
+        <v>0.03913043478260869</v>
       </c>
       <c r="H51" t="n">
-        <v>0.3982683982683983</v>
+        <v>0.4</v>
       </c>
       <c r="I51" t="n">
-        <v>0.5926935905526007</v>
+        <v>0.4847991445721644</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>2017</v>
       </c>
       <c r="C52" t="n">
-        <v>558</v>
+        <v>627</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -2049,29 +2049,29 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3044397463002114</v>
+        <v>0.1987315010570825</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3217391304347826</v>
+        <v>0.06956521739130436</v>
       </c>
       <c r="H52" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.8216216216216217</v>
       </c>
       <c r="I52" t="n">
-        <v>0.5949472640403859</v>
+        <v>0.5719458553063257</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>2017</v>
       </c>
       <c r="C53" t="n">
-        <v>424</v>
+        <v>390</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -2080,60 +2080,60 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0.7315010570824525</v>
+        <v>0.4207188160676533</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3956521739130435</v>
+        <v>0.1652173913043478</v>
       </c>
       <c r="H53" t="n">
-        <v>0.1645021645021645</v>
+        <v>0.2864864864864866</v>
       </c>
       <c r="I53" t="n">
-        <v>0.06504101685747776</v>
+        <v>0.364310189798051</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>2017</v>
       </c>
       <c r="C54" t="n">
-        <v>493</v>
+        <v>573</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>0.5221987315010571</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="G54" t="n">
-        <v>0.4043478260869565</v>
+        <v>0.2043478260869565</v>
       </c>
       <c r="H54" t="n">
-        <v>0.4675324675324675</v>
+        <v>0.5243243243243243</v>
       </c>
       <c r="I54" t="n">
-        <v>0.3687685928062743</v>
+        <v>0.2240880701839656</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>2017</v>
       </c>
       <c r="C55" t="n">
-        <v>642</v>
+        <v>504</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -2142,91 +2142,91 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.4439746300211418</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3956521739130435</v>
+        <v>0.8608695652173912</v>
       </c>
       <c r="H55" t="n">
-        <v>0.41991341991342</v>
+        <v>0.3405405405405406</v>
       </c>
       <c r="I55" t="n">
-        <v>0.2942170738303436</v>
+        <v>0.607499574716275</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>2017</v>
       </c>
       <c r="C56" t="n">
-        <v>411</v>
+        <v>473</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.5539112050739958</v>
+        <v>0.2050739957716702</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2913043478260869</v>
+        <v>0.6608695652173913</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2077922077922078</v>
+        <v>0.4972972972972973</v>
       </c>
       <c r="I56" t="n">
-        <v>0.3221400883440009</v>
+        <v>0.6404529879219421</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>2017</v>
       </c>
       <c r="C57" t="n">
-        <v>453</v>
+        <v>558</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.2198731501057083</v>
+        <v>0.3044397463002114</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2217391304347826</v>
+        <v>0.3217391304347826</v>
       </c>
       <c r="H57" t="n">
-        <v>0.367965367965368</v>
+        <v>0.681081081081081</v>
       </c>
       <c r="I57" t="n">
-        <v>0.3095420535472821</v>
+        <v>0.6428831806362245</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>2017</v>
       </c>
       <c r="C58" t="n">
-        <v>798</v>
+        <v>424</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -2235,29 +2235,29 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1627906976744186</v>
+        <v>0.7315010570824525</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1521739130434783</v>
+        <v>0.3956521739130435</v>
       </c>
       <c r="H58" t="n">
-        <v>0.8874458874458875</v>
+        <v>0.2054054054054054</v>
       </c>
       <c r="I58" t="n">
-        <v>0.8326422067970793</v>
+        <v>0.07147196772704079</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>2017</v>
       </c>
       <c r="C59" t="n">
-        <v>387</v>
+        <v>493</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -2266,29 +2266,29 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>0.3319238900634249</v>
+        <v>0.5221987315010571</v>
       </c>
       <c r="G59" t="n">
-        <v>0.08695652173913043</v>
+        <v>0.4043478260869565</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1558441558441558</v>
+        <v>0.5837837837837838</v>
       </c>
       <c r="I59" t="n">
-        <v>0.3894573154241414</v>
+        <v>0.3989890398308586</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>2017</v>
       </c>
       <c r="C60" t="n">
-        <v>667</v>
+        <v>642</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -2297,60 +2297,60 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.3530655391120507</v>
+        <v>0.4439746300211418</v>
       </c>
       <c r="G60" t="n">
-        <v>0.08695652173913043</v>
+        <v>0.3956521739130435</v>
       </c>
       <c r="H60" t="n">
-        <v>0.3246753246753247</v>
+        <v>0.5243243243243243</v>
       </c>
       <c r="I60" t="n">
-        <v>0.9187099972955917</v>
+        <v>0.3185982648424019</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>2017</v>
       </c>
       <c r="C61" t="n">
-        <v>513</v>
+        <v>411</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5221987315010571</v>
+        <v>0.5539112050739958</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1695652173913044</v>
+        <v>0.2913043478260869</v>
       </c>
       <c r="H61" t="n">
-        <v>0.5757575757575757</v>
+        <v>0.2594594594594595</v>
       </c>
       <c r="I61" t="n">
-        <v>0.8405300640043269</v>
+        <v>0.3487083525723589</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>2017</v>
       </c>
       <c r="C62" t="n">
-        <v>315</v>
+        <v>453</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -2359,60 +2359,60 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0.3847780126849895</v>
+        <v>0.2198731501057083</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1304347826086956</v>
+        <v>0.2217391304347826</v>
       </c>
       <c r="H62" t="n">
-        <v>0.2683982683982684</v>
+        <v>0.4594594594594594</v>
       </c>
       <c r="I62" t="n">
-        <v>0.1425223113675291</v>
+        <v>0.3351235752995212</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>2017</v>
       </c>
       <c r="C63" t="n">
-        <v>484</v>
+        <v>387</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0.3615221987315012</v>
+        <v>0.3319238900634249</v>
       </c>
       <c r="G63" t="n">
-        <v>0.3130434782608695</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="H63" t="n">
-        <v>0.3203463203463203</v>
+        <v>0.1945945945945946</v>
       </c>
       <c r="I63" t="n">
-        <v>0.2449968448571171</v>
+        <v>0.4212982089479693</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>2017</v>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>667</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -2421,29 +2421,29 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.5919661733615222</v>
+        <v>0.3530655391120507</v>
       </c>
       <c r="G64" t="n">
-        <v>0.2</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="H64" t="n">
-        <v>0.2857142857142858</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="I64" t="n">
-        <v>0.01108807355990282</v>
+        <v>0.9920046659700112</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>2017</v>
       </c>
       <c r="C65" t="n">
-        <v>452</v>
+        <v>513</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -2452,91 +2452,91 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.2621564482029598</v>
+        <v>0.5221987315010571</v>
       </c>
       <c r="G65" t="n">
-        <v>0.208695652173913</v>
+        <v>0.1695652173913044</v>
       </c>
       <c r="H65" t="n">
-        <v>0.5844155844155845</v>
+        <v>0.7189189189189189</v>
       </c>
       <c r="I65" t="n">
-        <v>0.7519381591994951</v>
+        <v>0.9077012807115601</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>2017</v>
       </c>
       <c r="C66" t="n">
-        <v>748</v>
+        <v>315</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2980972515856236</v>
+        <v>0.3847780126849895</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1043478260869565</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="H66" t="n">
-        <v>0.7359307359307359</v>
+        <v>0.3351351351351352</v>
       </c>
       <c r="I66" t="n">
-        <v>0.6330568827188316</v>
+        <v>0.1550219932440642</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>2017</v>
       </c>
       <c r="C67" t="n">
-        <v>709</v>
+        <v>484</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1078224101479915</v>
+        <v>0.3615221987315012</v>
       </c>
       <c r="G67" t="n">
-        <v>0.1217391304347826</v>
+        <v>0.3130434782608695</v>
       </c>
       <c r="H67" t="n">
-        <v>0.6926406926406927</v>
+        <v>0.4</v>
       </c>
       <c r="I67" t="n">
-        <v>0.4502839628594608</v>
+        <v>0.2655228559624778</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>2017</v>
       </c>
       <c r="C68" t="n">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -2545,277 +2545,277 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0.6828752642706131</v>
+        <v>0.2283298097251586</v>
       </c>
       <c r="G68" t="n">
-        <v>0.5478260869565217</v>
+        <v>0.1782608695652174</v>
       </c>
       <c r="H68" t="n">
-        <v>0.01731601731601734</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="I68" t="n">
-        <v>0.04870188407103582</v>
+        <v>0.005103404699992709</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C69" t="n">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2304439746300212</v>
+        <v>0.5919661733615222</v>
       </c>
       <c r="G69" t="n">
-        <v>0.008695652173913049</v>
+        <v>0.2</v>
       </c>
       <c r="H69" t="n">
-        <v>0.3463203463203463</v>
+        <v>0.3567567567567568</v>
       </c>
       <c r="I69" t="n">
-        <v>0.4509826016406744</v>
+        <v>0.01329315414712395</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C70" t="n">
-        <v>606</v>
+        <v>378</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1902748414376322</v>
+        <v>0.3530655391120507</v>
       </c>
       <c r="G70" t="n">
-        <v>0.05217391304347826</v>
+        <v>0.2652173913043478</v>
       </c>
       <c r="H70" t="n">
-        <v>0.6883116883116884</v>
+        <v>0.2378378378378379</v>
       </c>
       <c r="I70" t="n">
-        <v>0.5303119084107093</v>
+        <v>0.0006075481785703385</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C71" t="n">
-        <v>405</v>
+        <v>452</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.3932346723044398</v>
+        <v>0.2621564482029598</v>
       </c>
       <c r="G71" t="n">
-        <v>0.1478260869565217</v>
+        <v>0.208695652173913</v>
       </c>
       <c r="H71" t="n">
-        <v>0.2640692640692641</v>
+        <v>0.7297297297297298</v>
       </c>
       <c r="I71" t="n">
-        <v>0.3402821599206707</v>
+        <v>0.8121704051131253</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C72" t="n">
-        <v>595</v>
+        <v>709</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0.145877378435518</v>
+        <v>0.1078224101479915</v>
       </c>
       <c r="G72" t="n">
-        <v>0.1652173913043478</v>
+        <v>0.1217391304347826</v>
       </c>
       <c r="H72" t="n">
-        <v>0.4458874458874459</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="I72" t="n">
-        <v>0.2115974037681423</v>
+        <v>0.486889110306447</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C73" t="n">
-        <v>515</v>
+        <v>306</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.6871035940803384</v>
+        <v>0.6828752642706131</v>
       </c>
       <c r="G73" t="n">
-        <v>0.7695652173913043</v>
+        <v>0.5478260869565217</v>
       </c>
       <c r="H73" t="n">
-        <v>0.29004329004329</v>
+        <v>0.02162162162162162</v>
       </c>
       <c r="I73" t="n">
-        <v>0.5696610475074373</v>
+        <v>0.05385307054849431</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>2018</v>
       </c>
       <c r="C74" t="n">
-        <v>475</v>
+        <v>426</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>0.2029598308668077</v>
+        <v>0.3699788583509515</v>
       </c>
       <c r="G74" t="n">
-        <v>0.5782608695652174</v>
+        <v>0.1826086956521739</v>
       </c>
       <c r="H74" t="n">
-        <v>0.4112554112554113</v>
+        <v>0.1351351351351352</v>
       </c>
       <c r="I74" t="n">
-        <v>0.5981249436581628</v>
+        <v>0.5171936134535466</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>2018</v>
       </c>
       <c r="C75" t="n">
-        <v>557</v>
+        <v>494</v>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0.3171247357293869</v>
+        <v>0.2304439746300212</v>
       </c>
       <c r="G75" t="n">
-        <v>0.3043478260869565</v>
+        <v>0.008695652173913049</v>
       </c>
       <c r="H75" t="n">
-        <v>0.5584415584415585</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="I75" t="n">
-        <v>0.6008969620481386</v>
+        <v>0.4876424700478748</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>2018</v>
       </c>
       <c r="C76" t="n">
-        <v>443</v>
+        <v>606</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.7378435517970403</v>
+        <v>0.1902748414376322</v>
       </c>
       <c r="G76" t="n">
-        <v>0.2739130434782609</v>
+        <v>0.05217391304347826</v>
       </c>
       <c r="H76" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.8594594594594596</v>
       </c>
       <c r="I76" t="n">
-        <v>0.07135130262327616</v>
+        <v>0.5731852535906097</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>2018</v>
       </c>
       <c r="C77" t="n">
-        <v>502</v>
+        <v>405</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -2824,29 +2824,29 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>0.5158562367864694</v>
+        <v>0.3932346723044398</v>
       </c>
       <c r="G77" t="n">
-        <v>0.3739130434782608</v>
+        <v>0.1478260869565217</v>
       </c>
       <c r="H77" t="n">
-        <v>0.4848484848484848</v>
+        <v>0.3297297297297298</v>
       </c>
       <c r="I77" t="n">
-        <v>0.3753943928603625</v>
+        <v>0.3682714039223309</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>2018</v>
       </c>
       <c r="C78" t="n">
-        <v>662</v>
+        <v>595</v>
       </c>
       <c r="D78" t="n">
         <v>1</v>
@@ -2855,91 +2855,91 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.4143763213530656</v>
+        <v>0.145877378435518</v>
       </c>
       <c r="G78" t="n">
-        <v>0.2782608695652174</v>
+        <v>0.1652173913043478</v>
       </c>
       <c r="H78" t="n">
-        <v>0.4458874458874459</v>
+        <v>0.5567567567567568</v>
       </c>
       <c r="I78" t="n">
-        <v>0.2936311187235194</v>
+        <v>0.2295073999368149</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>2018</v>
       </c>
       <c r="C79" t="n">
-        <v>407</v>
+        <v>515</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.5285412262156449</v>
+        <v>0.6871035940803384</v>
       </c>
       <c r="G79" t="n">
-        <v>0.2347826086956522</v>
+        <v>0.7695652173913043</v>
       </c>
       <c r="H79" t="n">
-        <v>0.2337662337662338</v>
+        <v>0.3621621621621622</v>
       </c>
       <c r="I79" t="n">
-        <v>0.3236500495808168</v>
+        <v>0.6156164183819777</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>2018</v>
       </c>
       <c r="C80" t="n">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.2346723044397463</v>
+        <v>0.2029598308668077</v>
       </c>
       <c r="G80" t="n">
-        <v>0.1826086956521739</v>
+        <v>0.5782608695652174</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4025974025974026</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="I80" t="n">
-        <v>0.3132155413323718</v>
+        <v>0.6463097523633623</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>2018</v>
       </c>
       <c r="C81" t="n">
-        <v>803</v>
+        <v>557</v>
       </c>
       <c r="D81" t="n">
         <v>1</v>
@@ -2948,91 +2948,91 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1775898520084566</v>
+        <v>0.3171247357293869</v>
       </c>
       <c r="G81" t="n">
-        <v>0.1565217391304348</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="H81" t="n">
-        <v>0.9350649350649352</v>
+        <v>0.6972972972972973</v>
       </c>
       <c r="I81" t="n">
-        <v>0.8383665374560532</v>
+        <v>0.6492988894019296</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>2018</v>
       </c>
       <c r="C82" t="n">
-        <v>384</v>
+        <v>443</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.306553911205074</v>
+        <v>0.7378435517970403</v>
       </c>
       <c r="G82" t="n">
-        <v>0.06956521739130436</v>
+        <v>0.2739130434782609</v>
       </c>
       <c r="H82" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.2378378378378379</v>
       </c>
       <c r="I82" t="n">
-        <v>0.3959704318038402</v>
+        <v>0.07827650732703106</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>2018</v>
       </c>
       <c r="C83" t="n">
-        <v>673</v>
+        <v>502</v>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0.3319238900634249</v>
+        <v>0.5158562367864694</v>
       </c>
       <c r="G83" t="n">
-        <v>0.08695652173913043</v>
+        <v>0.3739130434782608</v>
       </c>
       <c r="H83" t="n">
-        <v>0.367965367965368</v>
+        <v>0.6054054054054054</v>
       </c>
       <c r="I83" t="n">
-        <v>0.9201974217975297</v>
+        <v>0.4061338064108484</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>2018</v>
       </c>
       <c r="C84" t="n">
-        <v>511</v>
+        <v>662</v>
       </c>
       <c r="D84" t="n">
         <v>1</v>
@@ -3041,29 +3041,29 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.5221987315010571</v>
+        <v>0.4143763213530656</v>
       </c>
       <c r="G84" t="n">
-        <v>0.1260869565217392</v>
+        <v>0.2782608695652174</v>
       </c>
       <c r="H84" t="n">
-        <v>0.6147186147186148</v>
+        <v>0.5567567567567568</v>
       </c>
       <c r="I84" t="n">
-        <v>0.8498377355088791</v>
+        <v>0.3179664147366885</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>2018</v>
       </c>
       <c r="C85" t="n">
-        <v>329</v>
+        <v>407</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -3072,91 +3072,91 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0.3868921775898521</v>
+        <v>0.5285412262156449</v>
       </c>
       <c r="G85" t="n">
-        <v>0.08260869565217391</v>
+        <v>0.2347826086956522</v>
       </c>
       <c r="H85" t="n">
-        <v>0.2987012987012987</v>
+        <v>0.2918918918918919</v>
       </c>
       <c r="I85" t="n">
-        <v>0.1414630848282701</v>
+        <v>0.3503365816909279</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>2018</v>
       </c>
       <c r="C86" t="n">
-        <v>504</v>
+        <v>461</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3594080338266384</v>
+        <v>0.2346723044397463</v>
       </c>
       <c r="G86" t="n">
-        <v>0.2260869565217392</v>
+        <v>0.1826086956521739</v>
       </c>
       <c r="H86" t="n">
-        <v>0.354978354978355</v>
+        <v>0.5027027027027027</v>
       </c>
       <c r="I86" t="n">
-        <v>0.2575948796538359</v>
+        <v>0.3390847894238012</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>2018</v>
       </c>
       <c r="C87" t="n">
-        <v>486</v>
+        <v>384</v>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>0.5348837209302326</v>
+        <v>0.306553911205074</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1347826086956521</v>
+        <v>0.06956521739130436</v>
       </c>
       <c r="H87" t="n">
-        <v>0.316017316017316</v>
+        <v>0.227027027027027</v>
       </c>
       <c r="I87" t="n">
-        <v>0.01712791850716666</v>
+        <v>0.4283214658922452</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>2018</v>
       </c>
       <c r="C88" t="n">
-        <v>434</v>
+        <v>673</v>
       </c>
       <c r="D88" t="n">
         <v>1</v>
@@ -3165,29 +3165,29 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.2579281183932347</v>
+        <v>0.3319238900634249</v>
       </c>
       <c r="G88" t="n">
-        <v>0.1956521739130435</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="H88" t="n">
-        <v>0.5974025974025974</v>
+        <v>0.4594594594594594</v>
       </c>
       <c r="I88" t="n">
-        <v>0.7583611286396825</v>
+        <v>0.9936085931614373</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>2018</v>
       </c>
       <c r="C89" t="n">
-        <v>739</v>
+        <v>511</v>
       </c>
       <c r="D89" t="n">
         <v>1</v>
@@ -3196,29 +3196,29 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2769556025369979</v>
+        <v>0.5221987315010571</v>
       </c>
       <c r="G89" t="n">
-        <v>0.08695652173913043</v>
+        <v>0.1260869565217392</v>
       </c>
       <c r="H89" t="n">
-        <v>0.7619047619047619</v>
+        <v>0.7675675675675675</v>
       </c>
       <c r="I89" t="n">
-        <v>0.6415532317677817</v>
+        <v>0.9177379766215457</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>2018</v>
       </c>
       <c r="C90" t="n">
-        <v>706</v>
+        <v>329</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -3227,60 +3227,60 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1120507399577167</v>
+        <v>0.3868921775898521</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1173913043478261</v>
+        <v>0.08260869565217391</v>
       </c>
       <c r="H90" t="n">
-        <v>0.7056277056277056</v>
+        <v>0.3729729729729729</v>
       </c>
       <c r="I90" t="n">
-        <v>0.4510952853150636</v>
+        <v>0.1538798026683514</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>2018</v>
       </c>
       <c r="C91" t="n">
-        <v>319</v>
+        <v>504</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.704016913319239</v>
+        <v>0.3594080338266384</v>
       </c>
       <c r="G91" t="n">
-        <v>0.5130434782608695</v>
+        <v>0.2260869565217392</v>
       </c>
       <c r="H91" t="n">
-        <v>0.03463203463203463</v>
+        <v>0.4432432432432433</v>
       </c>
       <c r="I91" t="n">
-        <v>0.05208239430271355</v>
+        <v>0.2791076332353155</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C92" t="n">
-        <v>500</v>
+        <v>272</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -3289,29 +3289,29 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2473572938689218</v>
+        <v>0.2304439746300212</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>0.1434782608695652</v>
       </c>
       <c r="H92" t="n">
-        <v>0.3766233766233766</v>
+        <v>0.318918918918919</v>
       </c>
       <c r="I92" t="n">
-        <v>0.4538898404399172</v>
+        <v>0.006610124182847565</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C93" t="n">
-        <v>609</v>
+        <v>486</v>
       </c>
       <c r="D93" t="n">
         <v>1</v>
@@ -3320,29 +3320,29 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1881606765327695</v>
+        <v>0.5348837209302326</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.1347826086956521</v>
       </c>
       <c r="H93" t="n">
-        <v>0.7056277056277056</v>
+        <v>0.3945945945945946</v>
       </c>
       <c r="I93" t="n">
-        <v>0.5317542594428921</v>
+        <v>0.01980607062140005</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C94" t="n">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -3351,29 +3351,29 @@
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>0.4883720930232559</v>
+        <v>0.3403805496828753</v>
       </c>
       <c r="G94" t="n">
-        <v>0.108695652173913</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="H94" t="n">
-        <v>0.29004329004329</v>
+        <v>0.2540540540540541</v>
       </c>
       <c r="I94" t="n">
-        <v>0.3441359415847833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C95" t="n">
-        <v>620</v>
+        <v>434</v>
       </c>
       <c r="D95" t="n">
         <v>1</v>
@@ -3382,60 +3382,60 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1141649048625793</v>
+        <v>0.2579281183932347</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1304347826086956</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="H95" t="n">
-        <v>0.4588744588744588</v>
+        <v>0.7459459459459459</v>
       </c>
       <c r="I95" t="n">
-        <v>0.2168935364644371</v>
+        <v>0.8190964543488297</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C96" t="n">
-        <v>524</v>
+        <v>706</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>0.704016913319239</v>
+        <v>0.1120507399577167</v>
       </c>
       <c r="G96" t="n">
-        <v>0.691304347826087</v>
+        <v>0.1173913043478261</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2987012987012987</v>
+        <v>0.8810810810810812</v>
       </c>
       <c r="I96" t="n">
-        <v>0.577098170017128</v>
+        <v>0.4877639796835886</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C97" t="n">
-        <v>472</v>
+        <v>319</v>
       </c>
       <c r="D97" t="n">
         <v>1</v>
@@ -3444,60 +3444,60 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1902748414376322</v>
+        <v>0.704016913319239</v>
       </c>
       <c r="G97" t="n">
-        <v>0.5260869565217392</v>
+        <v>0.5130434782608695</v>
       </c>
       <c r="H97" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.04324324324324325</v>
       </c>
       <c r="I97" t="n">
-        <v>0.6036239069683584</v>
+        <v>0.05749835961991767</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>2019</v>
       </c>
       <c r="C98" t="n">
-        <v>555</v>
+        <v>465</v>
       </c>
       <c r="D98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3044397463002114</v>
+        <v>0.4482029598308669</v>
       </c>
       <c r="G98" t="n">
-        <v>0.2782608695652174</v>
+        <v>0.1391304347826087</v>
       </c>
       <c r="H98" t="n">
-        <v>0.5887445887445888</v>
+        <v>0.1675675675675676</v>
       </c>
       <c r="I98" t="n">
-        <v>0.6068691967907691</v>
+        <v>0.5254319667549634</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>2019</v>
       </c>
       <c r="C99" t="n">
-        <v>459</v>
+        <v>500</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -3506,153 +3506,153 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.7124735729386893</v>
+        <v>0.2473572938689218</v>
       </c>
       <c r="G99" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2164502164502165</v>
+        <v>0.4702702702702702</v>
       </c>
       <c r="I99" t="n">
-        <v>0.07799963941224197</v>
+        <v>0.490777418649299</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>2019</v>
       </c>
       <c r="C100" t="n">
-        <v>503</v>
+        <v>609</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5010570824524314</v>
+        <v>0.1881606765327695</v>
       </c>
       <c r="G100" t="n">
-        <v>0.3434782608695652</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="H100" t="n">
-        <v>0.5064935064935066</v>
+        <v>0.8810810810810812</v>
       </c>
       <c r="I100" t="n">
-        <v>0.382110339853962</v>
+        <v>0.5747405769277505</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>2019</v>
       </c>
       <c r="C101" t="n">
-        <v>664</v>
+        <v>369</v>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3488372093023256</v>
+        <v>0.4883720930232559</v>
       </c>
       <c r="G101" t="n">
-        <v>0.2260869565217392</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.3621621621621622</v>
       </c>
       <c r="I101" t="n">
-        <v>0.2935184350491302</v>
+        <v>0.3724270334637536</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>2019</v>
       </c>
       <c r="C102" t="n">
-        <v>439</v>
+        <v>620</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.437632135306554</v>
+        <v>0.1141649048625793</v>
       </c>
       <c r="G102" t="n">
-        <v>0.1869565217391304</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="H102" t="n">
-        <v>0.2467532467532468</v>
+        <v>0.5729729729729729</v>
       </c>
       <c r="I102" t="n">
-        <v>0.3254529883710446</v>
+        <v>0.2352183528153782</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>2019</v>
       </c>
       <c r="C103" t="n">
-        <v>469</v>
+        <v>524</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.2135306553911205</v>
+        <v>0.704016913319239</v>
       </c>
       <c r="G103" t="n">
-        <v>0.1869565217391304</v>
+        <v>0.691304347826087</v>
       </c>
       <c r="H103" t="n">
-        <v>0.4415584415584415</v>
+        <v>0.3729729729729729</v>
       </c>
       <c r="I103" t="n">
-        <v>0.3171820066708737</v>
+        <v>0.6236360543391091</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>2019</v>
       </c>
       <c r="C104" t="n">
-        <v>791</v>
+        <v>472</v>
       </c>
       <c r="D104" t="n">
         <v>1</v>
@@ -3661,60 +3661,60 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.1839323467230444</v>
+        <v>0.1902748414376322</v>
       </c>
       <c r="G104" t="n">
-        <v>0.1565217391304348</v>
+        <v>0.5260869565217392</v>
       </c>
       <c r="H104" t="n">
-        <v>0.9220779220779221</v>
+        <v>0.5351351351351352</v>
       </c>
       <c r="I104" t="n">
-        <v>0.8438204272964933</v>
+        <v>0.6522394225862109</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>2019</v>
       </c>
       <c r="C105" t="n">
-        <v>390</v>
+        <v>555</v>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.3023255813953488</v>
+        <v>0.3044397463002114</v>
       </c>
       <c r="G105" t="n">
-        <v>0.05652173913043476</v>
+        <v>0.2782608695652174</v>
       </c>
       <c r="H105" t="n">
-        <v>0.2077922077922078</v>
+        <v>0.7351351351351352</v>
       </c>
       <c r="I105" t="n">
-        <v>0.4025736951230507</v>
+        <v>0.6557389000947775</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>2019</v>
       </c>
       <c r="C106" t="n">
-        <v>697</v>
+        <v>459</v>
       </c>
       <c r="D106" t="n">
         <v>1</v>
@@ -3723,184 +3723,184 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.3298097251585624</v>
+        <v>0.7124735729386893</v>
       </c>
       <c r="G106" t="n">
-        <v>0.09130434782608693</v>
+        <v>0.2</v>
       </c>
       <c r="H106" t="n">
-        <v>0.3896103896103896</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="I106" t="n">
-        <v>0.9216848462994678</v>
+        <v>0.08544557583416346</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>2019</v>
       </c>
       <c r="C107" t="n">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>0.53276955602537</v>
+        <v>0.5010570824524314</v>
       </c>
       <c r="G107" t="n">
-        <v>0.1043478260869565</v>
+        <v>0.3434782608695652</v>
       </c>
       <c r="H107" t="n">
-        <v>0.6277056277056277</v>
+        <v>0.6324324324324324</v>
       </c>
       <c r="I107" t="n">
-        <v>0.8585369151717299</v>
+        <v>0.4133757806994094</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B108" t="n">
         <v>2019</v>
       </c>
       <c r="C108" t="n">
-        <v>336</v>
+        <v>664</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.3530655391120507</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="G108" t="n">
-        <v>0.05652173913043476</v>
+        <v>0.2260869565217392</v>
       </c>
       <c r="H108" t="n">
-        <v>0.329004329004329</v>
+        <v>0.5945945945945945</v>
       </c>
       <c r="I108" t="n">
-        <v>0.1409898133958354</v>
+        <v>0.3178449051009746</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>2019</v>
       </c>
       <c r="C109" t="n">
-        <v>510</v>
+        <v>439</v>
       </c>
       <c r="D109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>0.3509513742071881</v>
+        <v>0.437632135306554</v>
       </c>
       <c r="G109" t="n">
-        <v>0.2</v>
+        <v>0.1869565217391304</v>
       </c>
       <c r="H109" t="n">
-        <v>0.380952380952381</v>
+        <v>0.3081081081081082</v>
       </c>
       <c r="I109" t="n">
-        <v>0.2700576940412873</v>
+        <v>0.3522807358623536</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>2019</v>
       </c>
       <c r="C110" t="n">
-        <v>504</v>
+        <v>469</v>
       </c>
       <c r="D110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>0.5983086680761101</v>
+        <v>0.2135306553911205</v>
       </c>
       <c r="G110" t="n">
-        <v>0.1043478260869565</v>
+        <v>0.1869565217391304</v>
       </c>
       <c r="H110" t="n">
-        <v>0.354978354978355</v>
+        <v>0.5513513513513513</v>
       </c>
       <c r="I110" t="n">
-        <v>0.0234607410078429</v>
+        <v>0.3433619286009379</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>2019</v>
       </c>
       <c r="C111" t="n">
-        <v>449</v>
+        <v>390</v>
       </c>
       <c r="D111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>0.2494714587737843</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="G111" t="n">
-        <v>0.2130434782608696</v>
+        <v>0.05652173913043476</v>
       </c>
       <c r="H111" t="n">
-        <v>0.6017316017316017</v>
+        <v>0.2594594594594595</v>
       </c>
       <c r="I111" t="n">
-        <v>0.7646038042008474</v>
+        <v>0.4354419305450923</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B112" t="n">
         <v>2019</v>
       </c>
       <c r="C112" t="n">
-        <v>776</v>
+        <v>697</v>
       </c>
       <c r="D112" t="n">
         <v>1</v>
@@ -3909,60 +3909,60 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.2579281183932347</v>
+        <v>0.3298097251585624</v>
       </c>
       <c r="G112" t="n">
-        <v>0.08260869565217391</v>
+        <v>0.09130434782608693</v>
       </c>
       <c r="H112" t="n">
-        <v>0.7619047619047619</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="I112" t="n">
-        <v>0.6498467502028307</v>
+        <v>0.9952125203528639</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>2019</v>
       </c>
       <c r="C113" t="n">
-        <v>709</v>
+        <v>508</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.1120507399577167</v>
+        <v>0.53276955602537</v>
       </c>
       <c r="G113" t="n">
         <v>0.1043478260869565</v>
       </c>
       <c r="H113" t="n">
-        <v>0.7099567099567101</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="I113" t="n">
-        <v>0.4522671955287119</v>
+        <v>0.9271185204986754</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B114" t="n">
         <v>2019</v>
       </c>
       <c r="C114" t="n">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
@@ -3971,29 +3971,29 @@
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>0.6828752642706131</v>
+        <v>0.3530655391120507</v>
       </c>
       <c r="G114" t="n">
-        <v>0.4043478260869565</v>
+        <v>0.05652173913043476</v>
       </c>
       <c r="H114" t="n">
-        <v>0.05627705627705626</v>
+        <v>0.4108108108108108</v>
       </c>
       <c r="I114" t="n">
-        <v>0.05586856576219246</v>
+        <v>0.1533694621983521</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C115" t="n">
-        <v>729</v>
+        <v>510</v>
       </c>
       <c r="D115" t="n">
         <v>1</v>
@@ -4002,29 +4002,29 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.3488372093023256</v>
+        <v>0.3509513742071881</v>
       </c>
       <c r="G115" t="n">
-        <v>0.1652173913043478</v>
+        <v>0.2</v>
       </c>
       <c r="H115" t="n">
-        <v>0.5844155844155845</v>
+        <v>0.4756756756756757</v>
       </c>
       <c r="I115" t="n">
-        <v>0.9983322816190388</v>
+        <v>0.2925465989452962</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C116" t="n">
-        <v>543</v>
+        <v>280</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
@@ -4033,29 +4033,29 @@
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>0.2219873150105708</v>
+        <v>0.2621564482029598</v>
       </c>
       <c r="G116" t="n">
-        <v>0.02608695652173913</v>
+        <v>0.1260869565217392</v>
       </c>
       <c r="H116" t="n">
-        <v>0.341991341991342</v>
+        <v>0.3891891891891892</v>
       </c>
       <c r="I116" t="n">
-        <v>0.4570449833228163</v>
+        <v>0.008700089917130338</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C117" t="n">
-        <v>641</v>
+        <v>504</v>
       </c>
       <c r="D117" t="n">
         <v>1</v>
@@ -4064,29 +4064,29 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.1733615221987315</v>
+        <v>0.5983086680761101</v>
       </c>
       <c r="G117" t="n">
-        <v>0.07391304347826089</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="H117" t="n">
-        <v>0.670995670995671</v>
+        <v>0.4432432432432433</v>
       </c>
       <c r="I117" t="n">
-        <v>0.5334895880284864</v>
+        <v>0.02663491214853342</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C118" t="n">
-        <v>383</v>
+        <v>421</v>
       </c>
       <c r="D118" t="n">
         <v>0</v>
@@ -4095,29 +4095,29 @@
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.3234672304439746</v>
+        <v>0.3446088794926004</v>
       </c>
       <c r="G118" t="n">
-        <v>0.2130434782608696</v>
+        <v>0.1608695652173913</v>
       </c>
       <c r="H118" t="n">
-        <v>0.2813852813852813</v>
+        <v>0.2972972972972974</v>
       </c>
       <c r="I118" t="n">
-        <v>0.3481474803930407</v>
+        <v>7.290578142837845e-05</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C119" t="n">
-        <v>637</v>
+        <v>449</v>
       </c>
       <c r="D119" t="n">
         <v>1</v>
@@ -4126,60 +4126,60 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.0697674418604651</v>
+        <v>0.2494714587737843</v>
       </c>
       <c r="G119" t="n">
-        <v>0.1695652173913044</v>
+        <v>0.2130434782608696</v>
       </c>
       <c r="H119" t="n">
-        <v>0.3766233766233766</v>
+        <v>0.7513513513513514</v>
       </c>
       <c r="I119" t="n">
-        <v>0.2224826467141441</v>
+        <v>0.8258280881673916</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C120" t="n">
-        <v>499</v>
+        <v>709</v>
       </c>
       <c r="D120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>0.6892177589852009</v>
+        <v>0.1120507399577167</v>
       </c>
       <c r="G120" t="n">
-        <v>0.6782608695652175</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="H120" t="n">
-        <v>0.2510822510822511</v>
+        <v>0.8864864864864865</v>
       </c>
       <c r="I120" t="n">
-        <v>0.5844676823221853</v>
+        <v>0.4890276798950157</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C121" t="n">
-        <v>449</v>
+        <v>338</v>
       </c>
       <c r="D121" t="n">
         <v>1</v>
@@ -4188,60 +4188,60 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.186046511627907</v>
+        <v>0.6828752642706131</v>
       </c>
       <c r="G121" t="n">
-        <v>0.5869565217391304</v>
+        <v>0.4043478260869565</v>
       </c>
       <c r="H121" t="n">
-        <v>0.329004329004329</v>
+        <v>0.07027027027027033</v>
       </c>
       <c r="I121" t="n">
-        <v>0.6091454070134319</v>
+        <v>0.06158108337991197</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="B122" t="n">
         <v>2020</v>
       </c>
       <c r="C122" t="n">
-        <v>538</v>
+        <v>432</v>
       </c>
       <c r="D122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>0.2748414376321353</v>
+        <v>0.4545454545454546</v>
       </c>
       <c r="G122" t="n">
-        <v>0.2608695652173913</v>
+        <v>0.1782608695652174</v>
       </c>
       <c r="H122" t="n">
-        <v>0.5541125541125542</v>
+        <v>0.1567567567567568</v>
       </c>
       <c r="I122" t="n">
-        <v>0.612863968268277</v>
+        <v>0.5336703200563806</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>2020</v>
       </c>
       <c r="C123" t="n">
-        <v>433</v>
+        <v>543</v>
       </c>
       <c r="D123" t="n">
         <v>0</v>
@@ -4250,153 +4250,153 @@
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>0.6765327695560255</v>
+        <v>0.2219873150105708</v>
       </c>
       <c r="G123" t="n">
-        <v>0.2347826086956522</v>
+        <v>0.02608695652173913</v>
       </c>
       <c r="H123" t="n">
-        <v>0.2034632034632035</v>
+        <v>0.427027027027027</v>
       </c>
       <c r="I123" t="n">
-        <v>0.08500856395925371</v>
+        <v>0.4941796884492942</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B124" t="n">
         <v>2020</v>
       </c>
       <c r="C124" t="n">
-        <v>487</v>
+        <v>641</v>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.4630021141649049</v>
+        <v>0.1733615221987315</v>
       </c>
       <c r="G124" t="n">
-        <v>0.3173913043478261</v>
+        <v>0.07391304347826089</v>
       </c>
       <c r="H124" t="n">
-        <v>0.4415584415584415</v>
+        <v>0.8378378378378379</v>
       </c>
       <c r="I124" t="n">
-        <v>0.3889389705219508</v>
+        <v>0.5766118253177477</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B125" t="n">
         <v>2020</v>
       </c>
       <c r="C125" t="n">
-        <v>625</v>
+        <v>383</v>
       </c>
       <c r="D125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>0.3128964059196617</v>
+        <v>0.3234672304439746</v>
       </c>
       <c r="G125" t="n">
-        <v>0.2434782608695652</v>
+        <v>0.2130434782608696</v>
       </c>
       <c r="H125" t="n">
-        <v>0.432900432900433</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="I125" t="n">
-        <v>0.2938790228071757</v>
+        <v>0.3767527764951759</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B126" t="n">
         <v>2020</v>
       </c>
       <c r="C126" t="n">
-        <v>478</v>
+        <v>637</v>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.4587737843551798</v>
+        <v>0.0697674418604651</v>
       </c>
       <c r="G126" t="n">
-        <v>0.2652173913043478</v>
+        <v>0.1695652173913044</v>
       </c>
       <c r="H126" t="n">
-        <v>0.2337662337662338</v>
+        <v>0.4702702702702702</v>
       </c>
       <c r="I126" t="n">
-        <v>0.3275489047146849</v>
+        <v>0.241245230746798</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B127" t="n">
         <v>2020</v>
       </c>
       <c r="C127" t="n">
-        <v>480</v>
+        <v>499</v>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.226215644820296</v>
+        <v>0.6892177589852009</v>
       </c>
       <c r="G127" t="n">
-        <v>0.2826086956521739</v>
+        <v>0.6782608695652175</v>
       </c>
       <c r="H127" t="n">
-        <v>0.41991341991342</v>
+        <v>0.3135135135135135</v>
       </c>
       <c r="I127" t="n">
-        <v>0.3214865230325432</v>
+        <v>0.6315827845148121</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B128" t="n">
         <v>2020</v>
       </c>
       <c r="C128" t="n">
-        <v>790</v>
+        <v>449</v>
       </c>
       <c r="D128" t="n">
         <v>1</v>
@@ -4405,60 +4405,60 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.1078224101479915</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="G128" t="n">
-        <v>0.208695652173913</v>
+        <v>0.5869565217391304</v>
       </c>
       <c r="H128" t="n">
-        <v>0.8008658008658009</v>
+        <v>0.4108108108108108</v>
       </c>
       <c r="I128" t="n">
-        <v>0.8490038763183989</v>
+        <v>0.6581933947362026</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>2020</v>
       </c>
       <c r="C129" t="n">
-        <v>406</v>
+        <v>538</v>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.2811839323467231</v>
+        <v>0.2748414376321353</v>
       </c>
       <c r="G129" t="n">
-        <v>0.09130434782608693</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="H129" t="n">
-        <v>0.2077922077922078</v>
+        <v>0.6918918918918919</v>
       </c>
       <c r="I129" t="n">
-        <v>0.4092896421166501</v>
+        <v>0.6622032127147681</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B130" t="n">
         <v>2020</v>
       </c>
       <c r="C130" t="n">
-        <v>642</v>
+        <v>433</v>
       </c>
       <c r="D130" t="n">
         <v>1</v>
@@ -4467,91 +4467,91 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.2832980972515856</v>
+        <v>0.6765327695560255</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1260869565217392</v>
+        <v>0.2347826086956522</v>
       </c>
       <c r="H130" t="n">
-        <v>0.3073593073593073</v>
+        <v>0.2540540540540541</v>
       </c>
       <c r="I130" t="n">
-        <v>0.9231722708014063</v>
+        <v>0.09300347517558127</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>2020</v>
       </c>
       <c r="C131" t="n">
-        <v>533</v>
+        <v>487</v>
       </c>
       <c r="D131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>0.4883720930232559</v>
+        <v>0.4630021141649049</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1260869565217392</v>
+        <v>0.3173913043478261</v>
       </c>
       <c r="H131" t="n">
-        <v>0.5887445887445888</v>
+        <v>0.5513513513513513</v>
       </c>
       <c r="I131" t="n">
-        <v>0.8666501397277564</v>
+        <v>0.4207392646236845</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>2020</v>
       </c>
       <c r="C132" t="n">
-        <v>834</v>
+        <v>625</v>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.2579281183932347</v>
+        <v>0.3128964059196617</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1739130434782609</v>
+        <v>0.2434782608695652</v>
       </c>
       <c r="H132" t="n">
-        <v>0.5974025974025974</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="I132" t="n">
-        <v>0.1119399621382855</v>
+        <v>0.3182337359352596</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>2020</v>
       </c>
       <c r="C133" t="n">
-        <v>346</v>
+        <v>478</v>
       </c>
       <c r="D133" t="n">
         <v>0</v>
@@ -4560,91 +4560,91 @@
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>0.3509513742071881</v>
+        <v>0.4587737843551798</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05217391304347826</v>
+        <v>0.2652173913043478</v>
       </c>
       <c r="H133" t="n">
-        <v>0.3246753246753247</v>
+        <v>0.2918918918918919</v>
       </c>
       <c r="I133" t="n">
-        <v>0.1411250338051024</v>
+        <v>0.3545408150866363</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B134" t="n">
         <v>2020</v>
       </c>
       <c r="C134" t="n">
-        <v>509</v>
+        <v>480</v>
       </c>
       <c r="D134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.3150105708245243</v>
+        <v>0.226215644820296</v>
       </c>
       <c r="G134" t="n">
-        <v>0.2217391304347826</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="H134" t="n">
-        <v>0.329004329004329</v>
+        <v>0.5243243243243243</v>
       </c>
       <c r="I134" t="n">
-        <v>0.2823627512845941</v>
+        <v>0.3480035966852173</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>2020</v>
       </c>
       <c r="C135" t="n">
-        <v>487</v>
+        <v>406</v>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>0.5073995771670191</v>
+        <v>0.2811839323467231</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1304347826086956</v>
+        <v>0.09130434782608693</v>
       </c>
       <c r="H135" t="n">
-        <v>0.3203463203463203</v>
+        <v>0.2594594594594595</v>
       </c>
       <c r="I135" t="n">
-        <v>0.03013161453168678</v>
+        <v>0.4426839048336531</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B136" t="n">
         <v>2020</v>
       </c>
       <c r="C136" t="n">
-        <v>431</v>
+        <v>642</v>
       </c>
       <c r="D136" t="n">
         <v>1</v>
@@ -4653,29 +4653,29 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.2389006342494715</v>
+        <v>0.2832980972515856</v>
       </c>
       <c r="G136" t="n">
-        <v>0.2826086956521739</v>
+        <v>0.1260869565217392</v>
       </c>
       <c r="H136" t="n">
-        <v>0.58008658008658</v>
+        <v>0.3837837837837837</v>
       </c>
       <c r="I136" t="n">
-        <v>0.7706661858829893</v>
+        <v>0.99681644754429</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B137" t="n">
         <v>2020</v>
       </c>
       <c r="C137" t="n">
-        <v>726</v>
+        <v>533</v>
       </c>
       <c r="D137" t="n">
         <v>1</v>
@@ -4684,29 +4684,29 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.2389006342494715</v>
+        <v>0.4883720930232559</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1173913043478261</v>
+        <v>0.1260869565217392</v>
       </c>
       <c r="H137" t="n">
-        <v>0.696969696969697</v>
+        <v>0.7351351351351352</v>
       </c>
       <c r="I137" t="n">
-        <v>0.6579149012891012</v>
+        <v>0.9358672142700915</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B138" t="n">
         <v>2020</v>
       </c>
       <c r="C138" t="n">
-        <v>706</v>
+        <v>346</v>
       </c>
       <c r="D138" t="n">
         <v>0</v>
@@ -4715,215 +4715,215 @@
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>0.1099365750528541</v>
+        <v>0.3509513742071881</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1217391304347826</v>
+        <v>0.05217391304347826</v>
       </c>
       <c r="H138" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="I138" t="n">
-        <v>0.4537546200306501</v>
+        <v>0.1535152737612091</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>2020</v>
       </c>
       <c r="C139" t="n">
-        <v>427</v>
+        <v>509</v>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.6617336152219874</v>
+        <v>0.3150105708245243</v>
       </c>
       <c r="G139" t="n">
-        <v>0.3391304347826087</v>
+        <v>0.2217391304347826</v>
       </c>
       <c r="H139" t="n">
-        <v>0.04761904761904762</v>
+        <v>0.4108108108108108</v>
       </c>
       <c r="I139" t="n">
-        <v>0.06006039844947275</v>
+        <v>0.3058154511652773</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C140" t="n">
-        <v>755</v>
+        <v>290</v>
       </c>
       <c r="D140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>0.3382663847780127</v>
+        <v>0.2177589852008457</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1869565217391304</v>
+        <v>0.1782608695652174</v>
       </c>
       <c r="H140" t="n">
-        <v>0.670995670995671</v>
+        <v>0.3837837837837837</v>
       </c>
       <c r="I140" t="n">
-        <v>0.9991886775443972</v>
+        <v>0.0113733019028408</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C141" t="n">
-        <v>570</v>
+        <v>487</v>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.2050739957716702</v>
+        <v>0.5073995771670191</v>
       </c>
       <c r="G141" t="n">
-        <v>0.03478260869565217</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="H141" t="n">
-        <v>0.4025974025974026</v>
+        <v>0.4</v>
       </c>
       <c r="I141" t="n">
-        <v>0.4604931037591273</v>
+        <v>0.03382828258280868</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C142" t="n">
-        <v>651</v>
+        <v>478</v>
       </c>
       <c r="D142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>0.1966173361522199</v>
+        <v>0.3361522198731501</v>
       </c>
       <c r="G142" t="n">
-        <v>0.07391304347826089</v>
+        <v>0.2043478260869565</v>
       </c>
       <c r="H142" t="n">
-        <v>0.7142857142857144</v>
+        <v>0.3297297297297298</v>
       </c>
       <c r="I142" t="n">
-        <v>0.5355404309023708</v>
+        <v>0.0008262655228559179</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C143" t="n">
-        <v>395</v>
+        <v>431</v>
       </c>
       <c r="D143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.306553911205074</v>
+        <v>0.2389006342494715</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1826086956521739</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="H143" t="n">
-        <v>0.341991341991342</v>
+        <v>0.7243243243243243</v>
       </c>
       <c r="I143" t="n">
-        <v>0.3523393130803212</v>
+        <v>0.832365306568811</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C144" t="n">
-        <v>625</v>
+        <v>706</v>
       </c>
       <c r="D144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>0.05708245243128962</v>
+        <v>0.1099365750528541</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1826086956521739</v>
+        <v>0.1217391304347826</v>
       </c>
       <c r="H144" t="n">
-        <v>0.4502164502164502</v>
+        <v>0.8324324324324324</v>
       </c>
       <c r="I144" t="n">
-        <v>0.2283196610475076</v>
+        <v>0.490631607086442</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C145" t="n">
-        <v>509</v>
+        <v>427</v>
       </c>
       <c r="D145" t="n">
         <v>1</v>
@@ -4932,122 +4932,122 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.7124735729386893</v>
+        <v>0.6617336152219874</v>
       </c>
       <c r="G145" t="n">
-        <v>0.5521739130434782</v>
+        <v>0.3391304347826087</v>
       </c>
       <c r="H145" t="n">
-        <v>0.303030303030303</v>
+        <v>0.05945945945945952</v>
       </c>
       <c r="I145" t="n">
-        <v>0.5917470476877309</v>
+        <v>0.06610124182847676</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="B146" t="n">
         <v>2021</v>
       </c>
       <c r="C146" t="n">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>0.1818181818181819</v>
+        <v>0.4038054968287527</v>
       </c>
       <c r="G146" t="n">
-        <v>0.5608695652173914</v>
+        <v>0.1391304347826087</v>
       </c>
       <c r="H146" t="n">
-        <v>0.406926406926407</v>
+        <v>0.2486486486486487</v>
       </c>
       <c r="I146" t="n">
-        <v>0.6146894437933832</v>
+        <v>0.5419086733577974</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>2021</v>
       </c>
       <c r="C147" t="n">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="D147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>0.2769556025369979</v>
+        <v>0.2050739957716702</v>
       </c>
       <c r="G147" t="n">
-        <v>0.2565217391304348</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="H147" t="n">
-        <v>0.6190476190476191</v>
+        <v>0.5027027027027027</v>
       </c>
       <c r="I147" t="n">
-        <v>0.6188812764806635</v>
+        <v>0.4978978833021457</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B148" t="n">
         <v>2021</v>
       </c>
       <c r="C148" t="n">
-        <v>456</v>
+        <v>651</v>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.6321353065539113</v>
+        <v>0.1966173361522199</v>
       </c>
       <c r="G148" t="n">
-        <v>0.2391304347826087</v>
+        <v>0.07391304347826089</v>
       </c>
       <c r="H148" t="n">
-        <v>0.2857142857142858</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="I148" t="n">
-        <v>0.09233300279455525</v>
+        <v>0.5788233006877443</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>2021</v>
       </c>
       <c r="C149" t="n">
-        <v>495</v>
+        <v>395</v>
       </c>
       <c r="D149" t="n">
         <v>0</v>
@@ -5056,29 +5056,29 @@
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>0.452431289640592</v>
+        <v>0.306553911205074</v>
       </c>
       <c r="G149" t="n">
-        <v>0.3260869565217391</v>
+        <v>0.1826086956521739</v>
       </c>
       <c r="H149" t="n">
-        <v>0.5064935064935066</v>
+        <v>0.427027027027027</v>
       </c>
       <c r="I149" t="n">
-        <v>0.3958577481294512</v>
+        <v>0.3812729349437411</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B150" t="n">
         <v>2021</v>
       </c>
       <c r="C150" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="D150" t="n">
         <v>1</v>
@@ -5087,91 +5087,91 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.2938689217758985</v>
+        <v>0.05708245243128962</v>
       </c>
       <c r="G150" t="n">
-        <v>0.2260869565217392</v>
+        <v>0.1826086956521739</v>
       </c>
       <c r="H150" t="n">
-        <v>0.4935064935064935</v>
+        <v>0.5621621621621622</v>
       </c>
       <c r="I150" t="n">
-        <v>0.2946678085279004</v>
+        <v>0.247539429876789</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B151" t="n">
         <v>2021</v>
       </c>
       <c r="C151" t="n">
-        <v>461</v>
+        <v>509</v>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.397463002114165</v>
+        <v>0.7124735729386893</v>
       </c>
       <c r="G151" t="n">
-        <v>0.2434782608695652</v>
+        <v>0.5521739130434782</v>
       </c>
       <c r="H151" t="n">
-        <v>0.2943722943722943</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="I151" t="n">
-        <v>0.3299377986117373</v>
+        <v>0.6394323069819434</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B152" t="n">
         <v>2021</v>
       </c>
       <c r="C152" t="n">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.2050739957716702</v>
+        <v>0.1818181818181819</v>
       </c>
       <c r="G152" t="n">
-        <v>0.2217391304347826</v>
+        <v>0.5608695652173914</v>
       </c>
       <c r="H152" t="n">
-        <v>0.4978354978354978</v>
+        <v>0.5081081081081081</v>
       </c>
       <c r="I152" t="n">
-        <v>0.3260614802127466</v>
+        <v>0.6641716688133368</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>2021</v>
       </c>
       <c r="C153" t="n">
-        <v>793</v>
+        <v>564</v>
       </c>
       <c r="D153" t="n">
         <v>1</v>
@@ -5180,91 +5180,91 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.1247357293868922</v>
+        <v>0.2769556025369979</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1434782608695652</v>
+        <v>0.2565217391304348</v>
       </c>
       <c r="H153" t="n">
-        <v>0.9220779220779221</v>
+        <v>0.7729729729729731</v>
       </c>
       <c r="I153" t="n">
-        <v>0.8539394212566482</v>
+        <v>0.6686918272619018</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B154" t="n">
         <v>2021</v>
       </c>
       <c r="C154" t="n">
-        <v>420</v>
+        <v>456</v>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.2494714587737843</v>
+        <v>0.6321353065539113</v>
       </c>
       <c r="G154" t="n">
-        <v>0.08695652173913043</v>
+        <v>0.2391304347826087</v>
       </c>
       <c r="H154" t="n">
-        <v>0.2467532467532468</v>
+        <v>0.3567567567567568</v>
       </c>
       <c r="I154" t="n">
-        <v>0.4161182727846391</v>
+        <v>0.1009016014969986</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B155" t="n">
         <v>2021</v>
       </c>
       <c r="C155" t="n">
-        <v>611</v>
+        <v>495</v>
       </c>
       <c r="D155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>0.1966173361522199</v>
+        <v>0.452431289640592</v>
       </c>
       <c r="G155" t="n">
-        <v>0.07826086956521738</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="H155" t="n">
-        <v>0.3766233766233766</v>
+        <v>0.6324324324324324</v>
       </c>
       <c r="I155" t="n">
-        <v>0.9246596953033444</v>
+        <v>0.4281999562565311</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B156" t="n">
         <v>2021</v>
       </c>
       <c r="C156" t="n">
-        <v>515</v>
+        <v>650</v>
       </c>
       <c r="D156" t="n">
         <v>1</v>
@@ -5273,29 +5273,29 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.4608879492600423</v>
+        <v>0.2938689217758985</v>
       </c>
       <c r="G156" t="n">
-        <v>0.09565217391304348</v>
+        <v>0.2260869565217392</v>
       </c>
       <c r="H156" t="n">
-        <v>0.6623376623376624</v>
+        <v>0.6162162162162161</v>
       </c>
       <c r="I156" t="n">
-        <v>0.8742224826467142</v>
+        <v>0.3190843033852582</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B157" t="n">
         <v>2021</v>
       </c>
       <c r="C157" t="n">
-        <v>835</v>
+        <v>461</v>
       </c>
       <c r="D157" t="n">
         <v>0</v>
@@ -5304,29 +5304,29 @@
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>0.2748414376321353</v>
+        <v>0.397463002114165</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1826086956521739</v>
+        <v>0.2434782608695652</v>
       </c>
       <c r="H157" t="n">
-        <v>0.696969696969697</v>
+        <v>0.3675675675675676</v>
       </c>
       <c r="I157" t="n">
-        <v>0.1175065356531146</v>
+        <v>0.3571168193637757</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B158" t="n">
         <v>2021</v>
       </c>
       <c r="C158" t="n">
-        <v>370</v>
+        <v>479</v>
       </c>
       <c r="D158" t="n">
         <v>0</v>
@@ -5335,60 +5335,60 @@
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>0.4249471458773785</v>
+        <v>0.2050739957716702</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06086956521739129</v>
+        <v>0.2217391304347826</v>
       </c>
       <c r="H158" t="n">
-        <v>0.3896103896103896</v>
+        <v>0.6216216216216217</v>
       </c>
       <c r="I158" t="n">
-        <v>0.1418462093211936</v>
+        <v>0.3529368878952099</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B159" t="n">
         <v>2021</v>
       </c>
       <c r="C159" t="n">
-        <v>510</v>
+        <v>420</v>
       </c>
       <c r="D159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>0.3086680761099366</v>
+        <v>0.2494714587737843</v>
       </c>
       <c r="G159" t="n">
-        <v>0.2043478260869565</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="H159" t="n">
-        <v>0.3896103896103896</v>
+        <v>0.3081081081081082</v>
       </c>
       <c r="I159" t="n">
-        <v>0.2945100513837557</v>
+        <v>0.4500473887579286</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B160" t="n">
         <v>2021</v>
       </c>
       <c r="C160" t="n">
-        <v>511</v>
+        <v>611</v>
       </c>
       <c r="D160" t="n">
         <v>1</v>
@@ -5397,29 +5397,29 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.477801268498943</v>
+        <v>0.1966173361522199</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1217391304347826</v>
+        <v>0.07826086956521738</v>
       </c>
       <c r="H160" t="n">
-        <v>0.4025974025974026</v>
+        <v>0.4702702702702702</v>
       </c>
       <c r="I160" t="n">
-        <v>0.03709546560894261</v>
+        <v>0.9984203747357165</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B161" t="n">
         <v>2021</v>
       </c>
       <c r="C161" t="n">
-        <v>418</v>
+        <v>515</v>
       </c>
       <c r="D161" t="n">
         <v>1</v>
@@ -5428,91 +5428,91 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.2156448202959831</v>
+        <v>0.4608879492600423</v>
       </c>
       <c r="G161" t="n">
-        <v>0.3</v>
+        <v>0.09565217391304348</v>
       </c>
       <c r="H161" t="n">
-        <v>0.6623376623376624</v>
+        <v>0.827027027027027</v>
       </c>
       <c r="I161" t="n">
-        <v>0.7765482736861082</v>
+        <v>0.9440326617900801</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B162" t="n">
         <v>2021</v>
       </c>
       <c r="C162" t="n">
-        <v>799</v>
+        <v>370</v>
       </c>
       <c r="D162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.1839323467230444</v>
+        <v>0.4249471458773785</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1043478260869565</v>
+        <v>0.06086956521739129</v>
       </c>
       <c r="H162" t="n">
-        <v>0.7792207792207793</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="I162" t="n">
-        <v>0.665780221761471</v>
+        <v>0.1542929354297795</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B163" t="n">
         <v>2021</v>
       </c>
       <c r="C163" t="n">
-        <v>704</v>
+        <v>510</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.09936575052854127</v>
+        <v>0.3086680761099366</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1347826086956521</v>
+        <v>0.2043478260869565</v>
       </c>
       <c r="H163" t="n">
-        <v>0.7099567099567101</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="I163" t="n">
-        <v>0.4555800955557558</v>
+        <v>0.3189141898952588</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B164" t="n">
         <v>2021</v>
       </c>
       <c r="C164" t="n">
-        <v>442</v>
+        <v>302</v>
       </c>
       <c r="D164" t="n">
         <v>0</v>
@@ -5521,29 +5521,29 @@
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>0.6405919661733616</v>
+        <v>0.2790697674418605</v>
       </c>
       <c r="G164" t="n">
-        <v>0.4</v>
+        <v>0.1565217391304348</v>
       </c>
       <c r="H164" t="n">
-        <v>0.09090909090909088</v>
+        <v>0.4702702702702702</v>
       </c>
       <c r="I164" t="n">
-        <v>0.06468042909943228</v>
+        <v>0.01465406206712183</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C165" t="n">
-        <v>690</v>
+        <v>511</v>
       </c>
       <c r="D165" t="n">
         <v>1</v>
@@ -5552,122 +5552,122 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.2854122621564482</v>
+        <v>0.477801268498943</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1565217391304348</v>
+        <v>0.1217391304347826</v>
       </c>
       <c r="H165" t="n">
-        <v>0.7705627705627707</v>
+        <v>0.5027027027027027</v>
       </c>
       <c r="I165" t="n">
-        <v>1</v>
+        <v>0.04133757806994076</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C166" t="n">
-        <v>606</v>
+        <v>497</v>
       </c>
       <c r="D166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>0.160676532769556</v>
+        <v>0.3192389006342495</v>
       </c>
       <c r="G166" t="n">
-        <v>0.05217391304347826</v>
+        <v>0.208695652173913</v>
       </c>
       <c r="H166" t="n">
-        <v>0.8008658008658009</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="I166" t="n">
-        <v>0.5378842513296673</v>
+        <v>0.002284381151425263</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C167" t="n">
-        <v>373</v>
+        <v>418</v>
       </c>
       <c r="D167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.3023255813953488</v>
+        <v>0.2156448202959831</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1565217391304348</v>
+        <v>0.3</v>
       </c>
       <c r="H167" t="n">
-        <v>0.4025974025974026</v>
+        <v>0.827027027027027</v>
       </c>
       <c r="I167" t="n">
-        <v>0.356711439646624</v>
+        <v>0.8387081095530875</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C168" t="n">
-        <v>622</v>
+        <v>704</v>
       </c>
       <c r="D168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0</v>
+        <v>0.09936575052854127</v>
       </c>
       <c r="G168" t="n">
-        <v>0.108695652173913</v>
+        <v>0.1347826086956521</v>
       </c>
       <c r="H168" t="n">
-        <v>0.5627705627705628</v>
+        <v>0.8864864864864865</v>
       </c>
       <c r="I168" t="n">
-        <v>0.2344271161994051</v>
+        <v>0.4926000631850103</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C169" t="n">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="D169" t="n">
         <v>1</v>
@@ -5676,91 +5676,91 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.1374207188160677</v>
+        <v>0.6405919661733616</v>
       </c>
       <c r="G169" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.4</v>
       </c>
       <c r="H169" t="n">
-        <v>0.4805194805194805</v>
+        <v>0.1135135135135136</v>
       </c>
       <c r="I169" t="n">
-        <v>0.6202785540430902</v>
+        <v>0.07108313689275558</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="B170" t="n">
         <v>2022</v>
       </c>
       <c r="C170" t="n">
-        <v>535</v>
+        <v>488</v>
       </c>
       <c r="D170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>0.2558139534883721</v>
+        <v>0.8245243128964058</v>
       </c>
       <c r="G170" t="n">
-        <v>0.2304347826086957</v>
+        <v>0.09565217391304348</v>
       </c>
       <c r="H170" t="n">
-        <v>0.6926406926406927</v>
+        <v>0.3891891891891892</v>
       </c>
       <c r="I170" t="n">
-        <v>0.6248985846930497</v>
+        <v>0.5501227247320712</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B171" t="n">
         <v>2022</v>
       </c>
       <c r="C171" t="n">
-        <v>478</v>
+        <v>606</v>
       </c>
       <c r="D171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F171" t="n">
-        <v>0.5221987315010571</v>
+        <v>0.160676532769556</v>
       </c>
       <c r="G171" t="n">
-        <v>0.208695652173913</v>
+        <v>0.05217391304347826</v>
       </c>
       <c r="H171" t="n">
-        <v>0.3766233766233766</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
-        <v>0.1000180293879025</v>
+        <v>0.5813507011105978</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B172" t="n">
         <v>2022</v>
       </c>
       <c r="C172" t="n">
-        <v>486</v>
+        <v>373</v>
       </c>
       <c r="D172" t="n">
         <v>0</v>
@@ -5769,29 +5769,29 @@
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>0.2811839323467231</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="G172" t="n">
-        <v>0.2652173913043478</v>
+        <v>0.1565217391304348</v>
       </c>
       <c r="H172" t="n">
-        <v>0.6190476190476191</v>
+        <v>0.5027027027027027</v>
       </c>
       <c r="I172" t="n">
-        <v>0.4028666726764625</v>
+        <v>0.3859875088094484</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B173" t="n">
         <v>2022</v>
       </c>
       <c r="C173" t="n">
-        <v>673</v>
+        <v>622</v>
       </c>
       <c r="D173" t="n">
         <v>1</v>
@@ -5800,91 +5800,91 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.2790697674418605</v>
+        <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1869565217391304</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="H173" t="n">
-        <v>0.5974025974025974</v>
+        <v>0.7027027027027026</v>
       </c>
       <c r="I173" t="n">
-        <v>0.2959073289461824</v>
+        <v>0.2541252521324942</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B174" t="n">
         <v>2022</v>
       </c>
       <c r="C174" t="n">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.2875264270613108</v>
+        <v>0.1374207188160677</v>
       </c>
       <c r="G174" t="n">
-        <v>0.2130434782608696</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="H174" t="n">
-        <v>0.3766233766233766</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="I174" t="n">
-        <v>0.3326196700622015</v>
+        <v>0.6701985467447569</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B175" t="n">
         <v>2022</v>
       </c>
       <c r="C175" t="n">
-        <v>465</v>
+        <v>535</v>
       </c>
       <c r="D175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.1374207188160677</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1739130434782609</v>
+        <v>0.2304347826086957</v>
       </c>
       <c r="H175" t="n">
-        <v>0.5627705627705628</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="I175" t="n">
-        <v>0.3309294149463626</v>
+        <v>0.6751804418090355</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B176" t="n">
         <v>2022</v>
       </c>
       <c r="C176" t="n">
-        <v>721</v>
+        <v>478</v>
       </c>
       <c r="D176" t="n">
         <v>1</v>
@@ -5893,29 +5893,29 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.07610993657505286</v>
+        <v>0.5221987315010571</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1130434782608696</v>
+        <v>0.208695652173913</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0.4702702702702702</v>
       </c>
       <c r="I176" t="n">
-        <v>0.8586495988461191</v>
+        <v>0.1091885586527011</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B177" t="n">
         <v>2022</v>
       </c>
       <c r="C177" t="n">
-        <v>407</v>
+        <v>486</v>
       </c>
       <c r="D177" t="n">
         <v>0</v>
@@ -5924,29 +5924,29 @@
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>0.2135306553911205</v>
+        <v>0.2811839323467231</v>
       </c>
       <c r="G177" t="n">
-        <v>0.06956521739130436</v>
+        <v>0.2652173913043478</v>
       </c>
       <c r="H177" t="n">
-        <v>0.3246753246753247</v>
+        <v>0.7729729729729731</v>
       </c>
       <c r="I177" t="n">
-        <v>0.4230370503921395</v>
+        <v>0.4357578555979487</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B178" t="n">
         <v>2022</v>
       </c>
       <c r="C178" t="n">
-        <v>618</v>
+        <v>673</v>
       </c>
       <c r="D178" t="n">
         <v>1</v>
@@ -5955,60 +5955,60 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.1649048625792812</v>
+        <v>0.2790697674418605</v>
       </c>
       <c r="G178" t="n">
-        <v>0.06521739130434784</v>
+        <v>0.1869565217391304</v>
       </c>
       <c r="H178" t="n">
-        <v>0.4458874458874459</v>
+        <v>0.7459459459459459</v>
       </c>
       <c r="I178" t="n">
-        <v>0.9261245830704046</v>
+        <v>0.3204209093781136</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B179" t="n">
         <v>2022</v>
       </c>
       <c r="C179" t="n">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="D179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>0.3171247357293869</v>
+        <v>0.2875264270613108</v>
       </c>
       <c r="G179" t="n">
-        <v>0.06521739130434784</v>
+        <v>0.2130434782608696</v>
       </c>
       <c r="H179" t="n">
-        <v>0.7792207792207793</v>
+        <v>0.4702702702702702</v>
       </c>
       <c r="I179" t="n">
-        <v>0.881299017398359</v>
+        <v>0.3600087486937715</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B180" t="n">
         <v>2022</v>
       </c>
       <c r="C180" t="n">
-        <v>803</v>
+        <v>465</v>
       </c>
       <c r="D180" t="n">
         <v>0</v>
@@ -6017,29 +6017,29 @@
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>0.2135306553911205</v>
+        <v>0.1374207188160677</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1217391304347826</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="H180" t="n">
-        <v>0.8051948051948052</v>
+        <v>0.7027027027027026</v>
       </c>
       <c r="I180" t="n">
-        <v>0.1233886234562338</v>
+        <v>0.3581861041580596</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B181" t="n">
         <v>2022</v>
       </c>
       <c r="C181" t="n">
-        <v>364</v>
+        <v>407</v>
       </c>
       <c r="D181" t="n">
         <v>0</v>
@@ -6048,29 +6048,29 @@
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>0.4080338266384778</v>
+        <v>0.2135306553911205</v>
       </c>
       <c r="G181" t="n">
-        <v>0.03913043478260869</v>
+        <v>0.06956521739130436</v>
       </c>
       <c r="H181" t="n">
-        <v>0.4935064935064935</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="I181" t="n">
-        <v>0.1431758766789868</v>
+        <v>0.457508080390775</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B182" t="n">
         <v>2022</v>
       </c>
       <c r="C182" t="n">
-        <v>508</v>
+        <v>618</v>
       </c>
       <c r="D182" t="n">
         <v>1</v>
@@ -6079,29 +6079,29 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.2219873150105708</v>
+        <v>0.1649048625792812</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1826086956521739</v>
+        <v>0.06521739130434784</v>
       </c>
       <c r="H182" t="n">
-        <v>0.4891774891774892</v>
+        <v>0.5567567567567568</v>
       </c>
       <c r="I182" t="n">
-        <v>0.3064995943387723</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B183" t="n">
         <v>2022</v>
       </c>
       <c r="C183" t="n">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="D183" t="n">
         <v>1</v>
@@ -6110,60 +6110,60 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.4228329809725159</v>
+        <v>0.3171247357293869</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08695652173913043</v>
+        <v>0.06521739130434784</v>
       </c>
       <c r="H183" t="n">
-        <v>0.4891774891774892</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="I183" t="n">
-        <v>0.04439736770936631</v>
+        <v>0.951663466912926</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B184" t="n">
         <v>2022</v>
       </c>
       <c r="C184" t="n">
-        <v>395</v>
+        <v>364</v>
       </c>
       <c r="D184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>0.2198731501057083</v>
+        <v>0.4080338266384778</v>
       </c>
       <c r="G184" t="n">
-        <v>0.2391304347826087</v>
+        <v>0.03913043478260869</v>
       </c>
       <c r="H184" t="n">
-        <v>0.7402597402597404</v>
+        <v>0.6162162162162161</v>
       </c>
       <c r="I184" t="n">
-        <v>0.7822726043450825</v>
+        <v>0.155726749131206</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B185" t="n">
         <v>2022</v>
       </c>
       <c r="C185" t="n">
-        <v>768</v>
+        <v>508</v>
       </c>
       <c r="D185" t="n">
         <v>1</v>
@@ -6172,29 +6172,29 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.08879492600422836</v>
+        <v>0.2219873150105708</v>
       </c>
       <c r="G185" t="n">
-        <v>0.05217391304347826</v>
+        <v>0.1826086956521739</v>
       </c>
       <c r="H185" t="n">
-        <v>0.9004329004329006</v>
+        <v>0.6108108108108108</v>
       </c>
       <c r="I185" t="n">
-        <v>0.6734652483548182</v>
+        <v>0.3318428151352402</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>2022</v>
       </c>
       <c r="C186" t="n">
-        <v>677</v>
+        <v>303</v>
       </c>
       <c r="D186" t="n">
         <v>0</v>
@@ -6203,47 +6203,171 @@
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>0.08456659619450316</v>
+        <v>0.3868921775898521</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09130434782608693</v>
+        <v>0.1565217391304348</v>
       </c>
       <c r="H186" t="n">
-        <v>0.7965367965367967</v>
+        <v>0.5945945945945945</v>
       </c>
       <c r="I186" t="n">
-        <v>0.4577436221040296</v>
+        <v>0.01854237040997342</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B187" t="n">
         <v>2022</v>
       </c>
       <c r="C187" t="n">
+        <v>487</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.4228329809725159</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0.6108108108108108</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0.04921140246421518</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C188" t="n">
+        <v>478</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.3382663847780127</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.1782608695652174</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0.4864864864864865</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0.004447252667136414</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C189" t="n">
+        <v>395</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.2198731501057083</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.2391304347826087</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0.9243243243243244</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0.8448807990473646</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C190" t="n">
+        <v>677</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.08456659619450316</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.09130434782608693</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0.9945945945945946</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0.4949330481907215</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C191" t="n">
         <v>473</v>
       </c>
-      <c r="D187" t="n">
-        <v>0</v>
-      </c>
-      <c r="E187" t="n">
-        <v>0</v>
-      </c>
-      <c r="F187" t="n">
+      <c r="D191" t="n">
+        <v>1</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1</v>
+      </c>
+      <c r="F191" t="n">
         <v>0.5348837209302326</v>
       </c>
-      <c r="G187" t="n">
+      <c r="G191" t="n">
         <v>0.3304347826086956</v>
       </c>
-      <c r="H187" t="n">
-        <v>0.1471861471861471</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0.06968358424231491</v>
+      <c r="H191" t="n">
+        <v>0.1837837837837838</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0.07647816471846203</v>
       </c>
     </row>
   </sheetData>
